--- a/Evandro/novosdadosBrutos_CA8X30_1bar.xlsx
+++ b/Evandro/novosdadosBrutos_CA8X30_1bar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioestebr-my.sharepoint.com/personal/carlos_borba_unioeste_br/Documents/ORIENTADOS DOUTORADO/Evandro/Projeto Software Adsorção/Tratamento de dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandr\OneDrive\Documentos\GitHub\Interface\Evandro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{768B83F0-42FC-4B88-85FB-EC169D2D6BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C51C7B-F88F-482D-A117-E9BDCBE03756}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F5868-B699-4B5B-903D-5B19509F1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BD0C62B-5E79-4BD1-864C-AEDB961A85D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5BD0C62B-5E79-4BD1-864C-AEDB961A85D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Brutos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>yCH4</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Integral_Fout</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -607,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -627,19 +630,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C3" s="6">
-        <v>0.08</v>
+        <v>4.8</v>
       </c>
       <c r="D3" s="5">
-        <v>151.51515151515153</v>
+        <v>2.525252525E-3</v>
       </c>
       <c r="E3">
-        <v>1.7674233333333333</v>
+        <v>106.0454</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -650,19 +653,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C4" s="6">
-        <v>0.17</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>107.74410774410775</v>
+        <v>1.7957351283333335E-3</v>
       </c>
       <c r="E4">
-        <v>1.8338233333333331</v>
+        <v>110.02939999999998</v>
       </c>
       <c r="F4">
         <v>1.0204081632653062E-3</v>
@@ -673,19 +676,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1.5</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C5" s="6">
-        <v>0.25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
-        <v>89.225589225589232</v>
+        <v>1.4870931538333333E-3</v>
       </c>
       <c r="E5">
-        <v>1.8836233333333334</v>
+        <v>113.01740000000001</v>
       </c>
       <c r="F5">
         <v>2.0408163265306124E-3</v>
@@ -696,19 +699,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C6" s="6">
-        <v>0.33</v>
+        <v>19.8</v>
       </c>
       <c r="D6" s="5">
-        <v>75.757575757575765</v>
+        <v>1.2626262626666666E-3</v>
       </c>
       <c r="E6">
-        <v>1.9002233333333334</v>
+        <v>114.0134</v>
       </c>
       <c r="F6">
         <v>8.1632653061224497E-3</v>
@@ -719,19 +722,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2.5</v>
+        <v>150</v>
       </c>
       <c r="B7" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C7" s="6">
-        <v>0.42</v>
+        <v>25.2</v>
       </c>
       <c r="D7" s="5">
-        <v>65.656565656565661</v>
+        <v>1.0942760943333334E-3</v>
       </c>
       <c r="E7">
-        <v>1.9334233333333333</v>
+        <v>116.00539999999999</v>
       </c>
       <c r="F7">
         <v>4.4897959183673473E-2</v>
@@ -742,19 +745,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C8" s="6">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
-        <v>62.289562289562291</v>
+        <v>1.0381593714999999E-3</v>
       </c>
       <c r="E8">
-        <v>1.9666233333333332</v>
+        <v>117.99739999999998</v>
       </c>
       <c r="F8">
         <v>0.10612244897959183</v>
@@ -765,19 +768,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>3.5</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5">
-        <v>24</v>
+        <v>297.14999999999998</v>
       </c>
       <c r="C9" s="6">
-        <v>0.57999999999999996</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D9" s="5">
-        <v>58.922558922558927</v>
+        <v>9.8204264866666663E-4</v>
       </c>
       <c r="E9">
-        <v>1.9832233333333331</v>
+        <v>118.99339999999998</v>
       </c>
       <c r="F9">
         <v>0.14693877551020409</v>
@@ -788,19 +791,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B10" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C10" s="6">
-        <v>0.67</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D10" s="5">
-        <v>58.922558922558927</v>
+        <v>9.8204264866666663E-4</v>
       </c>
       <c r="E10">
-        <v>1.9998233333333335</v>
+        <v>119.98940000000002</v>
       </c>
       <c r="F10">
         <v>0.20408163265306123</v>
@@ -811,19 +814,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>4.5</v>
+        <v>270</v>
       </c>
       <c r="B11" s="5">
-        <v>31</v>
+        <v>304.14999999999998</v>
       </c>
       <c r="C11" s="6">
-        <v>0.75</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5">
-        <v>62.289562289562291</v>
+        <v>1.0381593714999999E-3</v>
       </c>
       <c r="E11">
-        <v>2.0164233333333335</v>
+        <v>120.98540000000001</v>
       </c>
       <c r="F11">
         <v>0.26530612244897961</v>
@@ -834,19 +837,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="B12" s="5">
-        <v>30</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="C12" s="6">
-        <v>0.83</v>
+        <v>49.8</v>
       </c>
       <c r="D12" s="5">
-        <v>62.289562289562291</v>
+        <v>1.0381593714999999E-3</v>
       </c>
       <c r="E12">
-        <v>2.0330233333333334</v>
+        <v>121.98140000000001</v>
       </c>
       <c r="F12">
         <v>0.33673469387755106</v>
@@ -857,19 +860,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>5.5</v>
+        <v>330</v>
       </c>
       <c r="B13" s="5">
-        <v>29</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>0.92</v>
+        <v>55.2</v>
       </c>
       <c r="D13" s="5">
-        <v>55.555555555555557</v>
+        <v>9.2592592600000006E-4</v>
       </c>
       <c r="E13">
-        <v>2.0496233333333334</v>
+        <v>122.9774</v>
       </c>
       <c r="F13">
         <v>0.42857142857142855</v>
@@ -880,19 +883,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="B14" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5">
-        <v>55.555555555555557</v>
+        <v>9.2592592600000006E-4</v>
       </c>
       <c r="E14">
-        <v>2.0662233333333333</v>
+        <v>123.9734</v>
       </c>
       <c r="F14">
         <v>0.51020408163265307</v>
@@ -903,19 +906,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>6.5</v>
+        <v>390</v>
       </c>
       <c r="B15" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C15" s="6">
-        <v>1.25</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5">
-        <v>52.188552188552194</v>
+        <v>8.6980920316666668E-4</v>
       </c>
       <c r="E15">
-        <v>2.0828233333333332</v>
+        <v>124.96939999999999</v>
       </c>
       <c r="F15">
         <v>0.60204081632653061</v>
@@ -926,19 +929,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="B16" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C16" s="6">
-        <v>1.5</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5">
-        <v>52.188552188552194</v>
+        <v>8.6980920316666668E-4</v>
       </c>
       <c r="E16">
-        <v>2.0994233333333332</v>
+        <v>125.96539999999999</v>
       </c>
       <c r="F16">
         <v>0.69387755102040816</v>
@@ -949,19 +952,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>7.5</v>
+        <v>450</v>
       </c>
       <c r="B17" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C17" s="6">
-        <v>1.75</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5">
-        <v>52.188552188552194</v>
+        <v>8.6980920316666668E-4</v>
       </c>
       <c r="E17">
-        <v>2.1160233333333336</v>
+        <v>126.96140000000001</v>
       </c>
       <c r="F17">
         <v>0.75510204081632648</v>
@@ -972,19 +975,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="B18" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C18" s="6">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D18" s="5">
-        <v>52.188552188552194</v>
+        <v>8.6980920316666668E-4</v>
       </c>
       <c r="E18">
-        <v>2.1326233333333331</v>
+        <v>127.95739999999998</v>
       </c>
       <c r="F18">
         <v>0.83673469387755106</v>
@@ -995,19 +998,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>8.5</v>
+        <v>510</v>
       </c>
       <c r="B19" s="5">
-        <v>29</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="C19" s="6">
-        <v>2.25</v>
+        <v>135</v>
       </c>
       <c r="D19" s="5">
-        <v>62.289562289562291</v>
+        <v>1.0381593714999999E-3</v>
       </c>
       <c r="E19">
-        <v>2.1492233333333335</v>
+        <v>128.95340000000002</v>
       </c>
       <c r="F19">
         <v>0.89795918367346939</v>
@@ -1018,19 +1021,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>9</v>
+        <v>540</v>
       </c>
       <c r="B20" s="5">
-        <v>30</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="C20" s="6">
-        <v>2.33</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="D20" s="5">
-        <v>89.225589225589232</v>
+        <v>1.4870931538333333E-3</v>
       </c>
       <c r="E20">
-        <v>2.1658233333333334</v>
+        <v>129.9494</v>
       </c>
       <c r="F20">
         <v>0.95918367346938782</v>
@@ -1041,19 +1044,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>9.5</v>
+        <v>570</v>
       </c>
       <c r="B21" s="5">
-        <v>31</v>
+        <v>304.14999999999998</v>
       </c>
       <c r="C21" s="6">
-        <v>2.42</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="D21" s="5">
-        <v>161.61616161616163</v>
+        <v>2.6936026933333333E-3</v>
       </c>
       <c r="E21">
-        <v>2.1990233333333333</v>
+        <v>131.94139999999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1064,19 +1067,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="B22" s="5">
-        <v>31</v>
+        <v>304.14999999999998</v>
       </c>
       <c r="C22" s="6">
-        <v>2.5</v>
+        <v>150</v>
       </c>
       <c r="D22" s="5">
-        <v>217.17171717171718</v>
+        <v>3.61952862E-3</v>
       </c>
       <c r="E22">
-        <v>2.7674233333333333</v>
+        <v>166.0454</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1087,19 +1090,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>10.5</v>
+        <v>630</v>
       </c>
       <c r="B23" s="5">
-        <v>31</v>
+        <v>304.14999999999998</v>
       </c>
       <c r="C23" s="6">
-        <v>2.58</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D23" s="5">
-        <v>272.72727272727275</v>
+        <v>4.545454545E-3</v>
       </c>
       <c r="E23">
-        <v>3.2654233333333336</v>
+        <v>195.92540000000002</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1110,19 +1113,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>11</v>
+        <v>660</v>
       </c>
       <c r="B24" s="5">
-        <v>30</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="C24" s="6">
-        <v>2.67</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="D24" s="5">
-        <v>313.13131313131316</v>
+        <v>5.2188552183333337E-3</v>
       </c>
       <c r="E24">
-        <v>3.7674233333333333</v>
+        <v>226.0454</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1133,19 +1136,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>11.5</v>
+        <v>690</v>
       </c>
       <c r="B25" s="5">
-        <v>30</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="C25" s="6">
-        <v>2.75</v>
+        <v>165</v>
       </c>
       <c r="D25" s="5">
-        <v>279.4612794612795</v>
+        <v>4.6576879916666661E-3</v>
       </c>
       <c r="E25">
-        <v>4.2654233333333336</v>
+        <v>255.92540000000002</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1156,19 +1159,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="B26" s="5">
-        <v>30</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="C26" s="6">
-        <v>2.83</v>
+        <v>169.8</v>
       </c>
       <c r="D26" s="5">
-        <v>237.37373737373738</v>
+        <v>3.9562289566666669E-3</v>
       </c>
       <c r="E26">
-        <v>4.7674233333333333</v>
+        <v>286.04539999999997</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1179,19 +1182,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>12.5</v>
+        <v>750</v>
       </c>
       <c r="B27" s="5">
-        <v>29</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="C27" s="6">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D27" s="5">
-        <v>282.82828282828285</v>
+        <v>4.7138047133333336E-3</v>
       </c>
       <c r="E27">
-        <v>5.2654233333333336</v>
+        <v>315.92540000000002</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1202,19 +1205,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>13</v>
+        <v>780</v>
       </c>
       <c r="B28" s="5">
-        <v>29</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="C28" s="6">
-        <v>3.25</v>
+        <v>195</v>
       </c>
       <c r="D28" s="5">
-        <v>335.01683501683505</v>
+        <v>5.5836139166666673E-3</v>
       </c>
       <c r="E28">
-        <v>5.6140233333333338</v>
+        <v>336.84140000000002</v>
       </c>
       <c r="F28">
         <v>0.99454545454545451</v>
@@ -1225,19 +1228,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>13.5</v>
+        <v>810</v>
       </c>
       <c r="B29" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C29" s="6">
-        <v>3.5</v>
+        <v>210</v>
       </c>
       <c r="D29" s="5">
-        <v>338.38383838383839</v>
+        <v>5.63973064E-3</v>
       </c>
       <c r="E29">
-        <v>5.6306233333333333</v>
+        <v>337.8374</v>
       </c>
       <c r="F29">
         <v>0.99272727272727268</v>
@@ -1248,19 +1251,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>14</v>
+        <v>840</v>
       </c>
       <c r="B30" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>3.75</v>
+        <v>225</v>
       </c>
       <c r="D30" s="5">
-        <v>341.7508417508418</v>
+        <v>5.6958473633333334E-3</v>
       </c>
       <c r="E30">
-        <v>5.6638233333333332</v>
+        <v>339.82939999999996</v>
       </c>
       <c r="F30">
         <v>0.99090909090909096</v>
@@ -1271,19 +1274,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="B31" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C31" s="6">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D31" s="5">
-        <v>345.11784511784515</v>
+        <v>5.7519640850000001E-3</v>
       </c>
       <c r="E31">
-        <v>5.6970233333333331</v>
+        <v>341.82139999999998</v>
       </c>
       <c r="F31">
         <v>0.9872727272727273</v>
@@ -1294,19 +1297,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="B32" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C32" s="6">
-        <v>4.25</v>
+        <v>255</v>
       </c>
       <c r="D32" s="5">
-        <v>348.4848484848485</v>
+        <v>5.8080808083333336E-3</v>
       </c>
       <c r="E32">
-        <v>5.7136233333333335</v>
+        <v>342.81740000000002</v>
       </c>
       <c r="F32">
         <v>0.98545454545454547</v>
@@ -1317,19 +1320,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>15.5</v>
+        <v>930</v>
       </c>
       <c r="B33" s="5">
-        <v>28</v>
+        <v>301.14999999999998</v>
       </c>
       <c r="C33" s="6">
-        <v>4.5</v>
+        <v>270</v>
       </c>
       <c r="D33" s="5">
-        <v>351.85185185185185</v>
+        <v>5.8641975316666662E-3</v>
       </c>
       <c r="E33">
-        <v>5.7468233333333334</v>
+        <v>344.80939999999998</v>
       </c>
       <c r="F33">
         <v>0.98181818181818192</v>
@@ -1340,19 +1343,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="B34" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C34" s="6">
-        <v>4.75</v>
+        <v>285</v>
       </c>
       <c r="D34" s="5">
-        <v>355.21885521885525</v>
+        <v>5.9203142533333338E-3</v>
       </c>
       <c r="E34">
-        <v>5.7840233333333337</v>
+        <v>347.04140000000001</v>
       </c>
       <c r="F34">
         <v>0.97636363636363643</v>
@@ -1363,19 +1366,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="B35" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C35" s="6">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D35" s="5">
-        <v>358.5858585858586</v>
+        <v>5.9764309766666664E-3</v>
       </c>
       <c r="E35">
-        <v>5.8172233333333336</v>
+        <v>349.03340000000003</v>
       </c>
       <c r="F35">
         <v>0.97090909090909094</v>
@@ -1386,19 +1389,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>17</v>
+        <v>1020</v>
       </c>
       <c r="B36" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C36" s="6">
-        <v>5.25</v>
+        <v>315</v>
       </c>
       <c r="D36" s="5">
-        <v>358.5858585858586</v>
+        <v>5.9764309766666664E-3</v>
       </c>
       <c r="E36">
-        <v>5.8338233333333331</v>
+        <v>350.02940000000001</v>
       </c>
       <c r="F36">
         <v>0.96727272727272728</v>
@@ -1409,19 +1412,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>17.5</v>
+        <v>1050</v>
       </c>
       <c r="B37" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C37" s="6">
-        <v>5.5</v>
+        <v>330</v>
       </c>
       <c r="D37" s="5">
-        <v>361.95286195286195</v>
+        <v>6.0325476999999999E-3</v>
       </c>
       <c r="E37">
-        <v>5.8504233333333335</v>
+        <v>351.02539999999999</v>
       </c>
       <c r="F37">
         <v>0.96363636363636362</v>
@@ -1432,19 +1435,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>18</v>
+        <v>1080</v>
       </c>
       <c r="B38" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C38" s="6">
-        <v>5.75</v>
+        <v>345</v>
       </c>
       <c r="D38" s="5">
-        <v>361.95286195286195</v>
+        <v>6.0325476999999999E-3</v>
       </c>
       <c r="E38">
-        <v>5.867023333333333</v>
+        <v>352.02139999999997</v>
       </c>
       <c r="F38">
         <v>0.96</v>
@@ -1455,19 +1458,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>19</v>
+        <v>1140</v>
       </c>
       <c r="B39" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C39" s="6">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="D39" s="5">
-        <v>372.05387205387206</v>
+        <v>6.2008978683333327E-3</v>
       </c>
       <c r="E39">
-        <v>5.9002233333333329</v>
+        <v>354.01339999999999</v>
       </c>
       <c r="F39">
         <v>0.95272727272727264</v>
@@ -1478,19 +1481,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="B40" s="5">
-        <v>27</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="C40" s="6">
-        <v>6.25</v>
+        <v>375</v>
       </c>
       <c r="D40" s="5">
-        <v>382.15488215488216</v>
+        <v>6.3692480366666663E-3</v>
       </c>
       <c r="E40">
-        <v>5.9168233333333333</v>
+        <v>355.00940000000003</v>
       </c>
       <c r="F40">
         <v>0.94727272727272738</v>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>22</v>
+        <v>1320</v>
       </c>
       <c r="B41" s="5">
-        <v>26</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="C41" s="6">
-        <v>6.5</v>
+        <v>390</v>
       </c>
       <c r="D41" s="5">
-        <v>390.57239057239059</v>
+        <v>6.5095398433333337E-3</v>
       </c>
       <c r="E41">
-        <v>5.9334233333333337</v>
+        <v>356.00540000000001</v>
       </c>
       <c r="F41">
         <v>0.94363636363636361</v>
@@ -1524,19 +1527,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="B42" s="5">
-        <v>26</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="C42" s="6">
-        <v>6.75</v>
+        <v>405</v>
       </c>
       <c r="D42" s="5">
-        <v>404.04040404040404</v>
+        <v>6.734006733333334E-3</v>
       </c>
       <c r="E42">
-        <v>5.9500233333333332</v>
+        <v>357.00139999999999</v>
       </c>
       <c r="F42">
         <v>0.93818181818181812</v>
@@ -1547,19 +1550,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="B43" s="5">
-        <v>25</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="C43" s="6">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="D43" s="5">
-        <v>414.14141414141415</v>
+        <v>6.9023569016666668E-3</v>
       </c>
       <c r="E43">
-        <v>5.9666233333333336</v>
+        <v>357.99740000000003</v>
       </c>
       <c r="F43">
         <v>0.93454545454545457</v>
@@ -1572,13 +1575,13 @@
       <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6">
-        <v>7.25</v>
+        <v>435</v>
       </c>
       <c r="D44" s="5">
-        <v>427.60942760942766</v>
+        <v>7.1268237933333331E-3</v>
       </c>
       <c r="E44">
-        <v>5.9832233333333331</v>
+        <v>358.99340000000001</v>
       </c>
       <c r="F44">
         <v>0.92909090909090908</v>
@@ -1591,13 +1594,13 @@
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6">
-        <v>7.5</v>
+        <v>450</v>
       </c>
       <c r="D45" s="5">
-        <v>437.71043771043776</v>
+        <v>7.2951739616666667E-3</v>
       </c>
       <c r="E45">
-        <v>5.9998233333333335</v>
+        <v>359.98939999999999</v>
       </c>
       <c r="F45">
         <v>0.92545454545454542</v>
@@ -1610,13 +1613,13 @@
       <c r="A46" s="7"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
-        <v>7.75</v>
+        <v>465</v>
       </c>
       <c r="D46" s="5">
-        <v>444.44444444444446</v>
+        <v>7.4074074066666669E-3</v>
       </c>
       <c r="E46">
-        <v>6.016423333333333</v>
+        <v>360.98539999999997</v>
       </c>
       <c r="F46">
         <v>0.92</v>
@@ -1629,13 +1632,13 @@
       <c r="A47" s="7"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="D47" s="5">
-        <v>451.17845117845121</v>
+        <v>7.519640853333333E-3</v>
       </c>
       <c r="E47">
-        <v>6.0330233333333334</v>
+        <v>361.98140000000001</v>
       </c>
       <c r="F47">
         <v>0.91636363636363638</v>
@@ -1648,13 +1651,13 @@
       <c r="A48" s="7"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
-        <v>8.25</v>
+        <v>495</v>
       </c>
       <c r="D48" s="5">
-        <v>454.54545454545456</v>
+        <v>7.5757575749999997E-3</v>
       </c>
       <c r="E48">
-        <v>6.0496233333333329</v>
+        <v>362.97739999999999</v>
       </c>
       <c r="F48">
         <v>0.91090909090909089</v>
@@ -1667,13 +1670,13 @@
       <c r="A49" s="7"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
-        <v>8.5</v>
+        <v>510</v>
       </c>
       <c r="D49" s="5">
-        <v>456.22895622895624</v>
+        <v>7.6038159366666669E-3</v>
       </c>
       <c r="E49">
-        <v>6.0828233333333337</v>
+        <v>364.96940000000001</v>
       </c>
       <c r="F49">
         <v>0.90181818181818185</v>
@@ -1686,13 +1689,13 @@
       <c r="A50" s="7"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6">
-        <v>8.75</v>
+        <v>525</v>
       </c>
       <c r="D50" s="5">
-        <v>459.59595959595964</v>
+        <v>7.6599326600000003E-3</v>
       </c>
       <c r="E50">
-        <v>6.1160233333333336</v>
+        <v>366.96140000000003</v>
       </c>
       <c r="F50">
         <v>0.89090909090909098</v>
@@ -1705,13 +1708,13 @@
       <c r="A51" s="7"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6">
-        <v>9</v>
+        <v>540</v>
       </c>
       <c r="D51" s="5">
-        <v>462.96296296296299</v>
+        <v>7.716049383333333E-3</v>
       </c>
       <c r="E51">
-        <v>6.1492233333333335</v>
+        <v>368.95339999999999</v>
       </c>
       <c r="F51">
         <v>0.88181818181818183</v>
@@ -1724,13 +1727,13 @@
       <c r="A52" s="7"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
-        <v>9.15</v>
+        <v>549</v>
       </c>
       <c r="D52" s="5">
-        <v>466.32996632996634</v>
+        <v>7.7721661050000005E-3</v>
       </c>
       <c r="E52">
-        <v>6.1824233333333334</v>
+        <v>370.94540000000001</v>
       </c>
       <c r="F52">
         <v>0.8727272727272728</v>
@@ -1743,13 +1746,13 @@
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
-        <v>9.5</v>
+        <v>570</v>
       </c>
       <c r="D53" s="5">
-        <v>469.69696969696975</v>
+        <v>7.8282828283333331E-3</v>
       </c>
       <c r="E53">
-        <v>6.2156233333333333</v>
+        <v>372.93740000000003</v>
       </c>
       <c r="F53">
         <v>0.86363636363636365</v>
@@ -1762,13 +1765,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
-        <v>9.75</v>
+        <v>585</v>
       </c>
       <c r="D54" s="5">
-        <v>473.06397306397309</v>
+        <v>7.8843995516666675E-3</v>
       </c>
       <c r="E54">
-        <v>6.2488233333333332</v>
+        <v>374.92939999999999</v>
       </c>
       <c r="F54">
         <v>0.8545454545454545</v>
@@ -1781,13 +1784,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D55" s="5">
-        <v>473.06397306397309</v>
+        <v>7.8843995516666675E-3</v>
       </c>
       <c r="E55">
-        <v>6.2820233333333331</v>
+        <v>376.92140000000001</v>
       </c>
       <c r="F55">
         <v>0.84545454545454546</v>
@@ -1800,13 +1803,13 @@
       <c r="A56" s="7"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
-        <v>10.5</v>
+        <v>630</v>
       </c>
       <c r="D56" s="5">
-        <v>473.06397306397309</v>
+        <v>7.8843995516666675E-3</v>
       </c>
       <c r="E56">
-        <v>6.315223333333333</v>
+        <v>378.91339999999997</v>
       </c>
       <c r="F56">
         <v>0.83636363636363642</v>
@@ -1819,13 +1822,13 @@
       <c r="A57" s="7"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
-        <v>11</v>
+        <v>660</v>
       </c>
       <c r="D57" s="5">
-        <v>476.43097643097644</v>
+        <v>7.9405162733333333E-3</v>
       </c>
       <c r="E57">
-        <v>6.3484233333333329</v>
+        <v>380.90539999999999</v>
       </c>
       <c r="F57">
         <v>0.82727272727272716</v>
@@ -1838,13 +1841,13 @@
       <c r="A58" s="7"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
-        <v>11.5</v>
+        <v>690</v>
       </c>
       <c r="D58" s="5">
-        <v>479.79797979797985</v>
+        <v>7.9966329966666676E-3</v>
       </c>
       <c r="E58">
-        <v>6.3816233333333336</v>
+        <v>382.8974</v>
       </c>
       <c r="F58">
         <v>0.81818181818181812</v>
@@ -1857,13 +1860,13 @@
       <c r="A59" s="7"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="D59" s="5">
-        <v>483.1649831649832</v>
+        <v>8.0527497200000003E-3</v>
       </c>
       <c r="E59">
-        <v>6.4148233333333335</v>
+        <v>384.88940000000002</v>
       </c>
       <c r="F59">
         <v>0.80909090909090908</v>
@@ -1876,13 +1879,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6">
-        <v>12.5</v>
+        <v>750</v>
       </c>
       <c r="D60" s="5">
-        <v>484.84848484848487</v>
+        <v>8.0808080799999998E-3</v>
       </c>
       <c r="E60">
-        <v>6.4480233333333334</v>
+        <v>386.88139999999999</v>
       </c>
       <c r="F60">
         <v>0.8</v>
@@ -1895,13 +1898,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6">
-        <v>13</v>
+        <v>780</v>
       </c>
       <c r="D61" s="5">
-        <v>486.53198653198655</v>
+        <v>8.1088664416666661E-3</v>
       </c>
       <c r="E61">
-        <v>6.4978233333333328</v>
+        <v>389.86939999999998</v>
       </c>
       <c r="F61">
         <v>0.79090909090909089</v>
@@ -1914,13 +1917,13 @@
       <c r="A62" s="7"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6">
-        <v>13.5</v>
+        <v>810</v>
       </c>
       <c r="D62" s="5">
-        <v>489.89898989898995</v>
+        <v>8.1649831650000004E-3</v>
       </c>
       <c r="E62">
-        <v>6.5310233333333336</v>
+        <v>391.8614</v>
       </c>
       <c r="F62">
         <v>0.78181818181818186</v>
@@ -1933,13 +1936,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6">
-        <v>14</v>
+        <v>840</v>
       </c>
       <c r="D63" s="5">
-        <v>489.89898989898995</v>
+        <v>8.1649831650000004E-3</v>
       </c>
       <c r="E63">
-        <v>6.580823333333333</v>
+        <v>394.8494</v>
       </c>
       <c r="F63">
         <v>0.77272727272727282</v>
@@ -1952,13 +1955,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="D64" s="5">
-        <v>489.89898989898995</v>
+        <v>8.1649831650000004E-3</v>
       </c>
       <c r="E64">
-        <v>6.6140233333333338</v>
+        <v>396.84140000000002</v>
       </c>
       <c r="F64">
         <v>0.76363636363636356</v>
@@ -1971,13 +1974,13 @@
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="D65" s="5">
-        <v>489.89898989898995</v>
+        <v>8.1649831650000004E-3</v>
       </c>
       <c r="E65">
-        <v>6.6804233333333336</v>
+        <v>400.8254</v>
       </c>
       <c r="F65">
         <v>0.75454545454545452</v>
@@ -1990,13 +1993,13 @@
       <c r="A66" s="7"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6">
-        <v>15.5</v>
+        <v>930</v>
       </c>
       <c r="D66" s="5">
-        <v>491.58249158249163</v>
+        <v>8.1930415266666667E-3</v>
       </c>
       <c r="E66">
-        <v>6.730223333333333</v>
+        <v>403.8134</v>
       </c>
       <c r="F66">
         <v>0.74545454545454548</v>
@@ -2009,13 +2012,13 @@
       <c r="A67" s="7"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="D67" s="5">
-        <v>493.2659932659933</v>
+        <v>8.2210998883333331E-3</v>
       </c>
       <c r="E67">
-        <v>6.8006233333333341</v>
+        <v>408.03740000000005</v>
       </c>
       <c r="F67">
         <v>0.73636363636363644</v>
@@ -2028,13 +2031,13 @@
       <c r="A68" s="7"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="D68" s="5">
-        <v>493.2659932659933</v>
+        <v>8.2210998883333331E-3</v>
       </c>
       <c r="E68">
-        <v>6.8670233333333339</v>
+        <v>412.02140000000003</v>
       </c>
       <c r="F68">
         <v>0.72727272727272718</v>
@@ -2047,13 +2050,13 @@
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6">
-        <v>17</v>
+        <v>1020</v>
       </c>
       <c r="D69" s="5">
-        <v>493.2659932659933</v>
+        <v>8.2210998883333331E-3</v>
       </c>
       <c r="E69">
-        <v>6.9500233333333341</v>
+        <v>417.00140000000005</v>
       </c>
       <c r="F69">
         <v>0.71818181818181814</v>
@@ -2066,13 +2069,13 @@
       <c r="A70" s="7"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6">
-        <v>17.5</v>
+        <v>1050</v>
       </c>
       <c r="D70" s="5">
-        <v>493.2659932659933</v>
+        <v>8.2210998883333331E-3</v>
       </c>
       <c r="E70">
-        <v>7.0330233333333325</v>
+        <v>421.98139999999995</v>
       </c>
       <c r="F70">
         <v>0.70909090909090911</v>
@@ -2085,13 +2088,13 @@
       <c r="A71" s="7"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6">
-        <v>18</v>
+        <v>1080</v>
       </c>
       <c r="D71" s="5">
-        <v>493.2659932659933</v>
+        <v>8.2210998883333331E-3</v>
       </c>
       <c r="E71">
-        <v>7.1160233333333327</v>
+        <v>426.96139999999997</v>
       </c>
       <c r="F71">
         <v>0.7</v>
@@ -2104,13 +2107,13 @@
       <c r="A72" s="7"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6">
-        <v>18.5</v>
+        <v>1110</v>
       </c>
       <c r="D72" s="5">
-        <v>494.94949494949498</v>
+        <v>8.2491582483333326E-3</v>
       </c>
       <c r="E72">
-        <v>7.2156233333333333</v>
+        <v>432.93740000000003</v>
       </c>
       <c r="F72">
         <v>0.69090909090909092</v>
@@ -2123,13 +2126,13 @@
       <c r="A73" s="7"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6">
-        <v>19</v>
+        <v>1140</v>
       </c>
       <c r="D73" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E73">
-        <v>7.3152233333333339</v>
+        <v>438.91340000000002</v>
       </c>
       <c r="F73">
         <v>0.68181818181818188</v>
@@ -2142,13 +2145,13 @@
       <c r="A74" s="7"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6">
-        <v>19.5</v>
+        <v>1170</v>
       </c>
       <c r="D74" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E74">
-        <v>7.5642233333333326</v>
+        <v>453.85339999999997</v>
       </c>
       <c r="F74">
         <v>0.67272727272727284</v>
@@ -2161,13 +2164,13 @@
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="D75" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E75">
-        <v>7.8338233333333331</v>
+        <v>470.02940000000001</v>
       </c>
       <c r="F75">
         <v>0.66363636363636369</v>
@@ -2180,13 +2183,13 @@
       <c r="A76" s="7"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6">
-        <v>20.5</v>
+        <v>1230</v>
       </c>
       <c r="D76" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E76">
-        <v>8.431423333333333</v>
+        <v>505.8854</v>
       </c>
       <c r="F76">
         <v>0.65454545454545454</v>
@@ -2199,13 +2202,13 @@
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6">
-        <v>21</v>
+        <v>1260</v>
       </c>
       <c r="D77" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E77">
-        <v>8.9334233333333337</v>
+        <v>536.00540000000001</v>
       </c>
       <c r="F77">
         <v>0.6454545454545455</v>
@@ -2218,13 +2221,13 @@
       <c r="A78" s="7"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6">
-        <v>21.5</v>
+        <v>1290</v>
       </c>
       <c r="D78" s="5">
-        <v>496.63299663299665</v>
+        <v>8.2772166100000006E-3</v>
       </c>
       <c r="E78">
-        <v>9.431423333333333</v>
+        <v>565.8854</v>
       </c>
       <c r="F78">
         <v>0.63636363636363635</v>
@@ -2237,13 +2240,13 @@
       <c r="A79" s="7"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6">
-        <v>22</v>
+        <v>1320</v>
       </c>
       <c r="D79" s="5">
-        <v>498.31649831649833</v>
+        <v>8.3052749716666669E-3</v>
       </c>
       <c r="E79">
-        <v>10.767423333333333</v>
+        <v>646.04539999999997</v>
       </c>
       <c r="F79">
         <v>0.62727272727272732</v>
@@ -2256,13 +2259,13 @@
       <c r="A80" s="7"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6">
-        <v>22.5</v>
+        <v>1350</v>
       </c>
       <c r="D80" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E80">
-        <v>12.116023333333333</v>
+        <v>726.96139999999991</v>
       </c>
       <c r="F80">
         <v>0.61818181818181817</v>
@@ -2275,13 +2278,13 @@
       <c r="A81" s="7"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6">
-        <v>23</v>
+        <v>1380</v>
       </c>
       <c r="D81" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E81">
-        <v>15.614023333333332</v>
+        <v>936.84139999999991</v>
       </c>
       <c r="F81">
         <v>0.60909090909090913</v>
@@ -2294,13 +2297,13 @@
       <c r="A82" s="7"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6">
-        <v>23.5</v>
+        <v>1410</v>
       </c>
       <c r="D82" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E82">
-        <v>16.767423333333333</v>
+        <v>1006.0454</v>
       </c>
       <c r="F82">
         <v>0.6</v>
@@ -2313,13 +2316,13 @@
       <c r="A83" s="7"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6">
-        <v>24</v>
+        <v>1440</v>
       </c>
       <c r="D83" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E83">
-        <v>17.767423333333333</v>
+        <v>1066.0454</v>
       </c>
       <c r="F83">
         <v>0.6</v>
@@ -2332,13 +2335,13 @@
       <c r="A84" s="7"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6">
-        <v>24.5</v>
+        <v>1470</v>
       </c>
       <c r="D84" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E84">
-        <v>18.767423333333333</v>
+        <v>1126.0454</v>
       </c>
       <c r="F84">
         <v>0.6</v>
@@ -2351,40 +2354,40 @@
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="D85" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6">
-        <v>25.5</v>
+        <v>1530</v>
       </c>
       <c r="D86" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6">
-        <v>26</v>
+        <v>1560</v>
       </c>
       <c r="D87" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6">
-        <v>26.5</v>
+        <v>1590</v>
       </c>
       <c r="D88" s="5">
-        <v>500.00000000000006</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2396,12 +2399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2F350-1927-4C2B-8122-AF61D9507803}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2534,11 +2539,11 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="2">G4*F4</f>
+        <f>G4*F4</f>
         <v>3.1702191486594239E-9</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K66" si="3">((I5+I4)/2)*(A5-A4)</f>
+        <f t="shared" ref="K4:K66" si="2">((I5+I4)/2)*(A5-A4)</f>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2570,11 +2575,11 @@
         <v>0.9869</v>
       </c>
       <c r="I5">
+        <f t="shared" ref="I4:I67" si="3">G5*F5</f>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2603,11 +2608,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
         <v>3.5544881198521517E-8</v>
       </c>
     </row>
@@ -2639,11 +2644,11 @@
         <v>15</v>
       </c>
       <c r="I7">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
         <v>3.5544881388734637E-8</v>
       </c>
     </row>
@@ -2675,11 +2680,11 @@
         <v>8.2057458700000002E-2</v>
       </c>
       <c r="I8">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2708,11 +2713,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2741,11 +2746,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I10">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2774,11 +2779,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
         <v>3.5544881388734664E-8</v>
       </c>
     </row>
@@ -2807,11 +2812,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
         <v>2.0452313329200934E-8</v>
       </c>
     </row>
@@ -2840,11 +2845,11 @@
         <v>1.6019513615695444E-4</v>
       </c>
       <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.1702191486594239E-9</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="2"/>
-        <v>3.1702191486594239E-9</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
         <v>1.8969150552299662E-8</v>
       </c>
     </row>
@@ -2873,11 +2878,11 @@
         <v>5.4065857947043362E-4</v>
       </c>
       <c r="I14">
+        <f t="shared" si="3"/>
+        <v>3.6110777113990501E-8</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="2"/>
-        <v>3.6110777113990501E-8</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
         <v>3.4985208912644702E-7</v>
       </c>
     </row>
@@ -2906,11 +2911,11 @@
         <v>1.7721586254359264E-3</v>
       </c>
       <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.8796793647566657E-7</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="2"/>
-        <v>3.8796793647566657E-7</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
         <v>1.7875199121302801E-6</v>
       </c>
     </row>
@@ -2939,11 +2944,11 @@
         <v>3.7946221030538624E-3</v>
       </c>
       <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.7788024456732617E-6</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="2"/>
-        <v>1.7788024456732617E-6</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
         <v>1.3088937443071003E-6</v>
       </c>
     </row>
@@ -2972,11 +2977,11 @@
         <v>5.329825433886084E-3</v>
       </c>
       <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.5092686944227895E-6</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="2"/>
-        <v>3.5092686944227895E-6</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
         <v>1.8639320647774288E-6</v>
       </c>
     </row>
@@ -3005,11 +3010,11 @@
         <v>5.329825433886084E-3</v>
       </c>
       <c r="I18">
+        <f t="shared" si="3"/>
+        <v>3.5092686944227895E-6</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="2"/>
-        <v>3.5092686944227895E-6</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
         <v>3.9433309365435965E-6</v>
       </c>
     </row>
@@ -3038,11 +3043,11 @@
         <v>6.9985247047700495E-3</v>
       </c>
       <c r="I19">
+        <f t="shared" si="3"/>
+        <v>6.0506725653437487E-6</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="2"/>
-        <v>6.0506725653437487E-6</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
         <v>6.5875068792344046E-6</v>
       </c>
     </row>
@@ -3071,11 +3076,11 @@
         <v>8.9609150113884144E-3</v>
       </c>
       <c r="I20">
+        <f t="shared" si="3"/>
+        <v>9.9196276268555904E-6</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="2"/>
-        <v>9.9196276268555904E-6</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
         <v>1.0324081093034949E-5</v>
       </c>
     </row>
@@ -3104,11 +3109,11 @@
         <v>1.1059304310223032E-2</v>
       </c>
       <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.510936699691056E-5</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="2"/>
-        <v>1.510936699691056E-5</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
         <v>1.545585320513527E-5</v>
       </c>
     </row>
@@ -3137,11 +3142,11 @@
         <v>1.3453887777905158E-2</v>
       </c>
       <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2.2360744220835565E-5</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="2"/>
-        <v>2.2360744220835565E-5</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
         <v>2.3067062974503248E-5</v>
       </c>
     </row>
@@ -3170,11 +3175,11 @@
         <v>1.648257693047735E-2</v>
       </c>
       <c r="I23">
+        <f t="shared" si="3"/>
+        <v>3.3561462314758009E-5</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="2"/>
-        <v>3.3561462314758009E-5</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
         <v>3.285423742148687E-5</v>
       </c>
     </row>
@@ -3203,11 +3208,11 @@
         <v>1.9315193879359416E-2</v>
       </c>
       <c r="I24">
+        <f t="shared" si="3"/>
+        <v>4.6088099169711048E-5</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="2"/>
-        <v>4.6088099169711048E-5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
         <v>4.4185281590217552E-5</v>
       </c>
     </row>
@@ -3236,11 +3241,11 @@
         <v>2.2227074119801345E-2</v>
       </c>
       <c r="I25">
+        <f t="shared" si="3"/>
+        <v>6.1031669205338244E-5</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="2"/>
-        <v>6.1031669205338244E-5</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
         <v>5.7806333644500647E-5</v>
       </c>
     </row>
@@ -3269,11 +3274,11 @@
         <v>2.5305824234715075E-2</v>
       </c>
       <c r="I26">
+        <f t="shared" si="3"/>
+        <v>7.9110044228505088E-5</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="2"/>
-        <v>7.9110044228505088E-5</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
         <v>7.3397323814688526E-5</v>
       </c>
     </row>
@@ -3302,11 +3307,11 @@
         <v>2.8284452424945719E-2</v>
       </c>
       <c r="I27">
+        <f t="shared" si="3"/>
+        <v>9.8829410160838777E-5</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="2"/>
-        <v>9.8829410160838777E-5</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
         <v>8.7662364027438417E-5</v>
       </c>
     </row>
@@ -3335,11 +3340,11 @@
         <v>3.0336952488063448E-2</v>
       </c>
       <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.1369321710035334E-4</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="2"/>
-        <v>1.1369321710035334E-4</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
         <v>1.023832875058041E-4</v>
       </c>
     </row>
@@ -3368,11 +3373,11 @@
         <v>3.2998527795374759E-2</v>
       </c>
       <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.3451780811864864E-4</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="2"/>
-        <v>1.3451780811864864E-4</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
         <v>1.1886758967678464E-4</v>
       </c>
     </row>
@@ -3401,11 +3406,11 @@
         <v>3.5267958816728728E-2</v>
       </c>
       <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1.5365662950441819E-4</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="2"/>
-        <v>1.5365662950441819E-4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
         <v>1.2724834947617058E-4</v>
       </c>
     </row>
@@ -3434,11 +3439,11 @@
         <v>3.7320458879846453E-2</v>
       </c>
       <c r="I31">
+        <f t="shared" si="3"/>
+        <v>1.7206185586007632E-4</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="2"/>
-        <v>1.7206185586007632E-4</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
         <v>7.5071035072626257E-6</v>
       </c>
     </row>
@@ -3467,11 +3472,11 @@
         <v>3.7320458879846453E-2</v>
       </c>
       <c r="I32">
+        <f t="shared" si="3"/>
+        <v>1.7206185586007632E-4</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="2"/>
-        <v>1.7206185586007632E-4</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
         <v>1.8927011270283901E-4</v>
       </c>
     </row>
@@ -3500,11 +3505,11 @@
         <v>3.9189402040570878E-2</v>
       </c>
       <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1.8972647021196591E-4</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="2"/>
-        <v>1.8972647021196591E-4</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
         <v>6.4142475698767093E-4</v>
       </c>
     </row>
@@ -3533,11 +3538,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
         <v>1.3863318678071245E-3</v>
       </c>
     </row>
@@ -3566,11 +3571,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I35">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
         <v>2.269013816312066E-3</v>
       </c>
     </row>
@@ -3599,11 +3604,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="3"/>
         <v>1.7206238319167368E-4</v>
       </c>
     </row>
@@ -3632,11 +3637,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I37">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
         <v>5.0250929685068211E-4</v>
       </c>
     </row>
@@ -3665,11 +3670,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="3"/>
         <v>1.3866237806044659E-3</v>
       </c>
     </row>
@@ -3698,11 +3703,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I39">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="3"/>
         <v>2.0781835566524416E-4</v>
       </c>
     </row>
@@ -3731,11 +3736,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="3"/>
         <v>2.269013816312066E-3</v>
       </c>
     </row>
@@ -3764,11 +3769,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I41">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="3"/>
         <v>2.269013816312066E-3</v>
       </c>
     </row>
@@ -3797,11 +3802,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I42">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="3"/>
         <v>3.662789211534512E-4</v>
       </c>
     </row>
@@ -3830,11 +3835,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="3"/>
         <v>2.665919575878836E-4</v>
       </c>
     </row>
@@ -3863,11 +3868,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I44">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="3"/>
         <v>1.6361429375707311E-3</v>
       </c>
     </row>
@@ -3896,11 +3901,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I45">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="3"/>
         <v>2.269013816312066E-3</v>
       </c>
     </row>
@@ -3929,11 +3934,11 @@
         <v>4.0474300478746797E-2</v>
       </c>
       <c r="I46">
+        <f t="shared" si="3"/>
+        <v>2.02371502393734E-4</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="2"/>
-        <v>2.02371502393734E-4</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="3"/>
         <v>8.6217791357250649E-4</v>
       </c>
     </row>
@@ -3962,11 +3967,11 @@
         <v>4.0419341545248594E-2</v>
       </c>
       <c r="I47">
+        <f t="shared" si="3"/>
+        <v>2.0209670772624298E-4</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="2"/>
-        <v>2.0209670772624298E-4</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="3"/>
         <v>1.4025811563376177E-3</v>
       </c>
     </row>
@@ -3995,11 +4000,11 @@
         <v>4.0318060004324197E-2</v>
       </c>
       <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2.0159030002162099E-4</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="2"/>
-        <v>2.0159030002162099E-4</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="3"/>
         <v>2.2574301082093993E-3</v>
       </c>
     </row>
@@ -4028,11 +4033,11 @@
         <v>4.0217284771040231E-2</v>
       </c>
       <c r="I49">
+        <f t="shared" si="3"/>
+        <v>2.0108642385520116E-4</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="2"/>
-        <v>2.0108642385520116E-4</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="3"/>
         <v>1.3438541016119407E-3</v>
       </c>
     </row>
@@ -4061,11 +4066,11 @@
         <v>4.0017238116704282E-2</v>
       </c>
       <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2.0008619058352141E-4</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="2"/>
-        <v>2.0008619058352141E-4</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="3"/>
         <v>9.0098343100995879E-4</v>
       </c>
     </row>
@@ -4094,11 +4099,11 @@
         <v>3.9848489879925821E-2</v>
       </c>
       <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1.9924244939962911E-4</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="2"/>
-        <v>1.9924244939962911E-4</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="3"/>
         <v>2.2318596464523549E-3</v>
       </c>
     </row>
@@ -4127,11 +4132,11 @@
         <v>3.97746109645854E-2</v>
       </c>
       <c r="I52">
+        <f t="shared" si="3"/>
+        <v>1.9887305482292701E-4</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="2"/>
-        <v>1.9887305482292701E-4</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="3"/>
         <v>1.8022167798285146E-3</v>
       </c>
     </row>
@@ -4160,11 +4165,11 @@
         <v>3.9701005484629535E-2</v>
       </c>
       <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1.9850502742314768E-4</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="2"/>
-        <v>1.9850502742314768E-4</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="3"/>
         <v>4.2433095264850858E-4</v>
       </c>
     </row>
@@ -4193,11 +4198,11 @@
         <v>3.955460878114473E-2</v>
       </c>
       <c r="I54">
+        <f t="shared" si="3"/>
+        <v>1.9777304390572367E-4</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="2"/>
-        <v>1.9777304390572367E-4</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="3"/>
         <v>2.2179159403678127E-3</v>
       </c>
     </row>
@@ -4226,11 +4231,11 @@
         <v>3.957104092772698E-2</v>
       </c>
       <c r="I55">
+        <f t="shared" si="3"/>
+        <v>1.978552046386349E-4</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="2"/>
-        <v>1.978552046386349E-4</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="3"/>
         <v>2.2188375193157189E-3</v>
       </c>
     </row>
@@ -4259,11 +4264,11 @@
         <v>3.9587486732776261E-2</v>
       </c>
       <c r="I56">
+        <f t="shared" si="3"/>
+        <v>1.9793743366388131E-4</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="2"/>
-        <v>1.9793743366388131E-4</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="3"/>
         <v>7.470917278443031E-5</v>
       </c>
     </row>
@@ -4292,11 +4297,11 @@
         <v>3.9636246530482075E-2</v>
       </c>
       <c r="I57">
+        <f t="shared" si="3"/>
+        <v>1.9818123265241038E-4</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="2"/>
-        <v>1.9818123265241038E-4</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="3"/>
         <v>2.1479384562060272E-3</v>
       </c>
     </row>
@@ -4325,11 +4330,11 @@
         <v>3.9660671500072513E-2</v>
       </c>
       <c r="I58">
+        <f t="shared" si="3"/>
+        <v>1.9830335750036258E-4</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="2"/>
-        <v>1.9830335750036258E-4</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="3"/>
         <v>2.2240867543330662E-3</v>
       </c>
     </row>
@@ -4358,11 +4363,11 @@
         <v>3.9685126590930576E-2</v>
       </c>
       <c r="I59">
+        <f t="shared" si="3"/>
+        <v>1.984256329546529E-4</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="2"/>
-        <v>1.984256329546529E-4</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="3"/>
         <v>5.3648789719303893E-4</v>
       </c>
     </row>
@@ -4391,11 +4396,11 @@
         <v>3.9734127359601058E-2</v>
       </c>
       <c r="I60">
+        <f t="shared" si="3"/>
+        <v>1.986706367980053E-4</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="2"/>
-        <v>1.986706367980053E-4</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="3"/>
         <v>1.6849890927043388E-3</v>
       </c>
     </row>
@@ -4424,11 +4429,11 @@
         <v>3.9611905597749963E-2</v>
       </c>
       <c r="I61">
+        <f t="shared" si="3"/>
+        <v>1.9732839916356047E-4</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="2"/>
-        <v>1.9732839916356047E-4</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="3"/>
         <v>2.0079393478960495E-3</v>
       </c>
     </row>
@@ -4457,11 +4462,11 @@
         <v>3.9636391010773132E-2</v>
       </c>
       <c r="I62">
+        <f t="shared" si="3"/>
+        <v>1.9745037429406252E-4</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="2"/>
-        <v>1.9745037429406252E-4</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="3"/>
         <v>2.0660060902920921E-4</v>
       </c>
     </row>
@@ -4490,11 +4495,11 @@
         <v>3.957864754752724E-2</v>
       </c>
       <c r="I63">
+        <f t="shared" si="3"/>
+        <v>1.9999513404667942E-4</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="2"/>
-        <v>1.9999513404667942E-4</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="3"/>
         <v>1.2451781880358933E-3</v>
       </c>
     </row>
@@ -4523,11 +4528,11 @@
         <v>3.9603157854527594E-2</v>
       </c>
       <c r="I64">
+        <f t="shared" si="3"/>
+        <v>2.0011898724626577E-4</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="2"/>
-        <v>2.0011898724626577E-4</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="3"/>
         <v>2.3171502453096695E-4</v>
       </c>
     </row>
@@ -4556,11 +4561,11 @@
         <v>3.9567637695460393E-2</v>
       </c>
       <c r="I65">
+        <f t="shared" si="3"/>
+        <v>2.0043606365355044E-4</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="2"/>
-        <v>2.0043606365355044E-4</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="3"/>
         <v>3.3092173161859174E-4</v>
       </c>
     </row>
@@ -4589,11 +4594,11 @@
         <v>3.9501977184909519E-2</v>
       </c>
       <c r="I66">
+        <f t="shared" si="3"/>
+        <v>2.0069591927696567E-4</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="2"/>
-        <v>2.0069591927696567E-4</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="3"/>
         <v>3.3147370822073031E-4</v>
       </c>
     </row>
@@ -4622,7 +4627,7 @@
         <v>3.9387939663868159E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0110515077534241E-4</v>
       </c>
       <c r="K67">
@@ -9064,7 +9069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458B80CA-F133-426C-99AF-65FEB238A8E1}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/Evandro/novosdadosBrutos_CA8X30_1bar.xlsx
+++ b/Evandro/novosdadosBrutos_CA8X30_1bar.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandr\OneDrive\Documentos\GitHub\Interface\Evandro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F5868-B699-4B5B-903D-5B19509F1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB91242-AC56-4341-AAAE-DC9CEB660B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5BD0C62B-5E79-4BD1-864C-AEDB961A85D9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21630" windowHeight="11385" activeTab="1" xr2:uid="{5BD0C62B-5E79-4BD1-864C-AEDB961A85D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Brutos" sheetId="1" r:id="rId1"/>
-    <sheet name="Sincron. calculo_Fmolar_out_CH4" sheetId="3" r:id="rId2"/>
-    <sheet name="Sincron. calculo_Fmolar_out_CO2" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sincron. calculo_Fmolar_out_CH4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sincron. calculo_Fmolar_out_CO2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>yCH4</t>
   </si>
@@ -200,7 +201,3539 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Q </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$E$6:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$F$6:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.5151515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.74410770000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.225589229999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.757575759999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.656565659999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.289562289999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.92255892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.92255892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.289562289999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.289562289999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.555555560000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.555555560000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.188552190000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.188552190000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.188552190000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.188552190000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.289562289999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.225589229999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>161.6161616</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217.17171719999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272.72727270000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>313.13131310000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>279.46127949999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237.37373740000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>282.82828280000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>335.01683500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>338.38383839999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>341.75084179999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>345.11784510000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>348.4848485</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>351.85185189999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>355.21885520000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>358.58585859999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358.58585859999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>361.95286199999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>361.95286199999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>372.05387209999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>382.15488219999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390.57239060000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>404.04040400000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>414.14141410000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>427.6094276</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>437.7104377</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>444.44444440000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>451.17845119999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>454.54545450000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>456.22895620000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>459.59595960000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>462.96296299999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>466.32996630000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>469.69696969999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>473.06397310000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>473.06397310000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>473.06397310000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>476.43097639999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>479.79797980000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>483.16498319999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>484.84848479999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>486.53198649999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>489.8989899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>489.8989899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>489.8989899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>489.8989899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>491.58249160000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>493.26599329999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>493.26599329999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>493.26599329999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>493.26599329999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>493.26599329999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>494.94949489999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>496.63299660000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>498.31649830000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D742-4090-8EA0-7D5E455D684F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1569882928"/>
+        <c:axId val="1569881488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1569882928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569881488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1569881488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569882928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q (ml min-1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$6:$B$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.21212122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.42424244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.636363660000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.848484820000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.060606039999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.272727259999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.484848479999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.696969699999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.90909092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.36047877999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.32629698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.97623638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.62617578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.12121214</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112.65235758</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113.47732728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.30229698000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115.12726668000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115.95223638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116.77720608</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117.60217578</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118.42714548000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119.25211517999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120.07708482000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120.90205452000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.72702421999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122.55199391999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>123.33333335999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123.37696362000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124.42326665999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>127.69502424000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134.54545451999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>145.75757573999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146.60780603999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>149.0909091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>155.94278183999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>156.96969695999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>168.18181817999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>179.39393939999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181.20387270000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>182.52121211999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>190.60606061999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>201.81818183999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>206.08144848000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>213.03030305999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>224.24242422</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>230.94205452</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>235.45454544</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>246.66666665999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255.73720607999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>257.87878788</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>269.09090909999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280.30303032</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280.68023633999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>291.51515153999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>302.72727270000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>305.42932728</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>313.93939391999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>324.11187269999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>325.15151514000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>331.37563032000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>332.5326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>334.1825394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>335.83247879999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>336.36363635999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>336.66750911999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>338.1363576</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>339.90023633999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>341.67623634</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>343.19538785999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>344.02035755999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>344.84532725999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>345.67029696000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>346.93793333999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>347.57575758000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>348.31623636</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>349.14120605999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>349.96617576</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>350.79114546</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>351.61611515999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>352.44108485999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>353.26605455999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>354.09102425999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>354.91599395999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>355.74096365999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>356.56593336000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>357.77320607999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>358.78787879999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>359.42314548000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>361.07308482000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>362.72302422000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>364.37296361999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>366.02290302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>367.67284241999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>369.32278181999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>370.00000002000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>370.97272121999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>372.62266062000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>374.27260002000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>375.92253942000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>377.57247875999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>379.22241816000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>380.87235756000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>381.21212123999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>383.32714548000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>385.16823635999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>387.28096361999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>389.46411516000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>391.35550908000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>392.42424240000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>394.65538787999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>397.18060002000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>400.40459999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>403.63636362</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>403.79902422000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>407.36047878000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>411.48532727999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>414.84848484000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>415.61017578000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>419.73502421999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>424.43332727999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>426.06060606</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>429.38314548</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>436.41550907999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>437.27272728000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>448.4848485</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>448.86496362000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>459.69696971999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>462.26326668000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>470.90909088000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>482.12121210000004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>489.77550911999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>493.33333331999995</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>504.54545453999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>515.75757576000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>516.34569089999991</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>526.96969697999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>538.18181819999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>541.20387270000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>549.39393942000004</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>560.60606057999996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>571.81818180000005</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>576.11053937999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>583.03030302000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>594.24242423999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>605.45454540000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>616.66666679999992</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>627.87878760000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>639.09090900000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>642.52859999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>650.30303040000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>661.51515180000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>672.72727259999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>683.93939399999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>695.15151540000011</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>706.36363620000009</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>709.54993320000005</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>717.57575759999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>728.78787899999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>739.99999980000007</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>751.21212119999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>762.42424259999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>773.63636339999994</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>784.84848480000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>796.06060619999994</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>807.27272699999992</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>818.48484840000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>829.69696979999992</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>840.90909120000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>852.12121200000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>863.33333340000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>865.15260000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>874.54545480000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>885.7575756</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>896.969697</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>908.1818184</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>919.39393920000009</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>930.60606059999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>941.81818199999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>953.03030280000007</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>964.24242420000007</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>966.52314540000009</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>975.45454560000007</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>986.66666640000005</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>997.87878779999994</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1009.0909091999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1020.3030306000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1020.6826607999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1031.5151513999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1042.7272728</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1053.9393942000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1065.151515</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1070.3796306000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1076.3636363999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1095.151515</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1117.5757578</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1120.0765997999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$6:$C$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.187384046</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.007421151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.13543599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.126159560000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.50525665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.50525665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.873840450000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.419295000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.9727891</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.721706870000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>122.1706865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143.16635740000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>164.74953619999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187.5695733</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209.6474954</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>224.8608534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>244.58874460000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>261.4100186</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>276.62337659999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>276.62337659999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>290.47619049999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>298.892562</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>298.892562</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>303.18640950000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>303.18640950000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>303.93939390000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>304.8393021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306.3452709</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307.107438</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>307.107438</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>308.44811750000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>310.38567490000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>312.64462809999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>314.78420569999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>316.29017449999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>319.30211200000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>321.6161616</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>324.38016529999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>324.38016529999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>326.5472911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>328.0532599</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>330.24793390000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>331.97428830000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>333.85674929999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>335.89531679999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>337.46556470000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>339.72451790000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>341.32231410000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>343.33333329999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>346.29017449999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>350.24793390000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>350.24793390000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>354.7291093</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>358.49403119999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>362.25895320000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>366.0238751</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>369.78879710000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>373.553719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>377.31864089999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>377.31864089999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>381.0835629</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>384.84848479999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>388.61340680000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>392.3783287</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>396.14325070000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>399.9081726</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>403.67309460000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>403.67309460000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>407.4380165</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>411.20293850000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>414.96786040000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>418.73278240000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>422.49770430000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>422.49770430000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>426.26262630000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>430.02754820000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>433.7924701</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>433.7924701</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>437.55739210000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>441.32231400000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>445.08723600000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>445.08723600000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>448.85215790000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>452.61707990000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>456.38200180000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>456.38200180000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>460.14692380000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>463.91184570000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>463.91184570000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>463.91184570000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>467.67676770000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>467.67676770000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>471.44168960000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>471.44168960000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>471.44168960000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>475.20661159999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>475.20661159999997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>475.20661159999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>475.20661159999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>478.97153350000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>478.97153350000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>478.97153350000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>482.73645540000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>482.73645540000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>482.73645540000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>482.73645540000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>486.50137740000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>490.26629930000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>494.03122130000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>497.79614320000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36E6-4B89-8ED0-2589731148D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1569871408"/>
+        <c:axId val="1324740847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1569871408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324740847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1324740847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569871408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF13C746-8EC7-EC3E-46A0-E57EFA311F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBE930E-90A2-2048-EA3B-0B86F77A1D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -568,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DEA1D0-553A-44A1-9436-BE47FD0B098A}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D1" sqref="C1:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,9 +4134,7 @@
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -622,9 +4153,6 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -647,9 +4175,6 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -670,9 +4195,6 @@
       <c r="F4">
         <v>1.0204081632653062E-3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -693,9 +4215,6 @@
       <c r="F5">
         <v>2.0408163265306124E-3</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -716,9 +4235,6 @@
       <c r="F6">
         <v>8.1632653061224497E-3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -739,9 +4255,6 @@
       <c r="F7">
         <v>4.4897959183673473E-2</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -762,9 +4275,6 @@
       <c r="F8">
         <v>0.10612244897959183</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -785,9 +4295,6 @@
       <c r="F9">
         <v>0.14693877551020409</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -808,9 +4315,6 @@
       <c r="F10">
         <v>0.20408163265306123</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -831,9 +4335,6 @@
       <c r="F11">
         <v>0.26530612244897961</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -854,9 +4355,6 @@
       <c r="F12">
         <v>0.33673469387755106</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -877,9 +4375,6 @@
       <c r="F13">
         <v>0.42857142857142855</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -900,9 +4395,6 @@
       <c r="F14">
         <v>0.51020408163265307</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -923,9 +4415,6 @@
       <c r="F15">
         <v>0.60204081632653061</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -946,11 +4435,8 @@
       <c r="F16">
         <v>0.69387755102040816</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>450</v>
       </c>
@@ -969,11 +4455,8 @@
       <c r="F17">
         <v>0.75510204081632648</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>480</v>
       </c>
@@ -992,11 +4475,8 @@
       <c r="F18">
         <v>0.83673469387755106</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>510</v>
       </c>
@@ -1015,11 +4495,8 @@
       <c r="F19">
         <v>0.89795918367346939</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>540</v>
       </c>
@@ -1038,11 +4515,8 @@
       <c r="F20">
         <v>0.95918367346938782</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>570</v>
       </c>
@@ -1061,11 +4535,8 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>600</v>
       </c>
@@ -1084,11 +4555,8 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>630</v>
       </c>
@@ -1107,11 +4575,8 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>660</v>
       </c>
@@ -1130,11 +4595,8 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>690</v>
       </c>
@@ -1153,11 +4615,8 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>720</v>
       </c>
@@ -1176,11 +4635,8 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>750</v>
       </c>
@@ -1199,11 +4655,8 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>780</v>
       </c>
@@ -1222,11 +4675,8 @@
       <c r="F28">
         <v>0.99454545454545451</v>
       </c>
-      <c r="G28">
-        <v>5.4545454545454541E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>810</v>
       </c>
@@ -1245,11 +4695,8 @@
       <c r="F29">
         <v>0.99272727272727268</v>
       </c>
-      <c r="G29">
-        <v>7.2727272727272727E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>840</v>
       </c>
@@ -1268,11 +4715,8 @@
       <c r="F30">
         <v>0.99090909090909096</v>
       </c>
-      <c r="G30">
-        <v>9.0909090909090905E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>870</v>
       </c>
@@ -1291,11 +4735,8 @@
       <c r="F31">
         <v>0.9872727272727273</v>
       </c>
-      <c r="G31">
-        <v>1.2727272727272728E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>900</v>
       </c>
@@ -1314,11 +4755,8 @@
       <c r="F32">
         <v>0.98545454545454547</v>
       </c>
-      <c r="G32">
-        <v>1.4545454545454545E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>930</v>
       </c>
@@ -1337,11 +4775,8 @@
       <c r="F33">
         <v>0.98181818181818192</v>
       </c>
-      <c r="G33">
-        <v>1.8181818181818181E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>960</v>
       </c>
@@ -1360,11 +4795,8 @@
       <c r="F34">
         <v>0.97636363636363643</v>
       </c>
-      <c r="G34">
-        <v>2.3636363636363636E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>990</v>
       </c>
@@ -1383,11 +4815,8 @@
       <c r="F35">
         <v>0.97090909090909094</v>
       </c>
-      <c r="G35">
-        <v>2.9090909090909091E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1020</v>
       </c>
@@ -1406,11 +4835,8 @@
       <c r="F36">
         <v>0.96727272727272728</v>
       </c>
-      <c r="G36">
-        <v>3.2727272727272723E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1050</v>
       </c>
@@ -1429,11 +4855,8 @@
       <c r="F37">
         <v>0.96363636363636362</v>
       </c>
-      <c r="G37">
-        <v>3.6363636363636362E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1080</v>
       </c>
@@ -1452,11 +4875,8 @@
       <c r="F38">
         <v>0.96</v>
       </c>
-      <c r="G38">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1140</v>
       </c>
@@ -1475,11 +4895,8 @@
       <c r="F39">
         <v>0.95272727272727264</v>
       </c>
-      <c r="G39">
-        <v>4.7272727272727272E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1200</v>
       </c>
@@ -1498,11 +4915,8 @@
       <c r="F40">
         <v>0.94727272727272738</v>
       </c>
-      <c r="G40">
-        <v>5.2727272727272727E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1320</v>
       </c>
@@ -1521,11 +4935,8 @@
       <c r="F41">
         <v>0.94363636363636361</v>
       </c>
-      <c r="G41">
-        <v>5.6363636363636366E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1500</v>
       </c>
@@ -1544,11 +4955,8 @@
       <c r="F42">
         <v>0.93818181818181812</v>
       </c>
-      <c r="G42">
-        <v>6.1818181818181814E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1800</v>
       </c>
@@ -1567,11 +4975,8 @@
       <c r="F43">
         <v>0.93454545454545457</v>
       </c>
-      <c r="G43">
-        <v>6.5454545454545446E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6">
@@ -1586,11 +4991,8 @@
       <c r="F44">
         <v>0.92909090909090908</v>
       </c>
-      <c r="G44">
-        <v>7.0909090909090908E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6">
@@ -1605,11 +5007,8 @@
       <c r="F45">
         <v>0.92545454545454542</v>
       </c>
-      <c r="G45">
-        <v>7.4545454545454526E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
@@ -1624,11 +5023,8 @@
       <c r="F46">
         <v>0.92</v>
       </c>
-      <c r="G46">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
@@ -1643,11 +5039,8 @@
       <c r="F47">
         <v>0.91636363636363638</v>
       </c>
-      <c r="G47">
-        <v>8.3636363636363634E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
@@ -1662,11 +5055,8 @@
       <c r="F48">
         <v>0.91090909090909089</v>
       </c>
-      <c r="G48">
-        <v>8.9090909090909096E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -1681,11 +5071,8 @@
       <c r="F49">
         <v>0.90181818181818185</v>
       </c>
-      <c r="G49">
-        <v>9.818181818181819E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6">
@@ -1700,11 +5087,8 @@
       <c r="F50">
         <v>0.89090909090909098</v>
       </c>
-      <c r="G50">
-        <v>0.10909090909090909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6">
@@ -1719,11 +5103,8 @@
       <c r="F51">
         <v>0.88181818181818183</v>
       </c>
-      <c r="G51">
-        <v>0.11818181818181818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
@@ -1738,11 +5119,8 @@
       <c r="F52">
         <v>0.8727272727272728</v>
       </c>
-      <c r="G52">
-        <v>0.12727272727272726</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
@@ -1757,11 +5135,8 @@
       <c r="F53">
         <v>0.86363636363636365</v>
       </c>
-      <c r="G53">
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
@@ -1776,11 +5151,8 @@
       <c r="F54">
         <v>0.8545454545454545</v>
       </c>
-      <c r="G54">
-        <v>0.14545454545454545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
@@ -1795,11 +5167,8 @@
       <c r="F55">
         <v>0.84545454545454546</v>
       </c>
-      <c r="G55">
-        <v>0.15454545454545454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
@@ -1814,11 +5183,8 @@
       <c r="F56">
         <v>0.83636363636363642</v>
       </c>
-      <c r="G56">
-        <v>0.16363636363636364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
@@ -1833,11 +5199,8 @@
       <c r="F57">
         <v>0.82727272727272716</v>
       </c>
-      <c r="G57">
-        <v>0.17272727272727273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
@@ -1852,11 +5215,8 @@
       <c r="F58">
         <v>0.81818181818181812</v>
       </c>
-      <c r="G58">
-        <v>0.1818181818181818</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6">
@@ -1871,11 +5231,8 @@
       <c r="F59">
         <v>0.80909090909090908</v>
       </c>
-      <c r="G59">
-        <v>0.19090909090909089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6">
@@ -1890,11 +5247,8 @@
       <c r="F60">
         <v>0.8</v>
       </c>
-      <c r="G60">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6">
@@ -1909,11 +5263,8 @@
       <c r="F61">
         <v>0.79090909090909089</v>
       </c>
-      <c r="G61">
-        <v>0.20909090909090911</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6">
@@ -1928,11 +5279,8 @@
       <c r="F62">
         <v>0.78181818181818186</v>
       </c>
-      <c r="G62">
-        <v>0.21818181818181817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6">
@@ -1947,11 +5295,8 @@
       <c r="F63">
         <v>0.77272727272727282</v>
       </c>
-      <c r="G63">
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6">
@@ -1966,11 +5311,8 @@
       <c r="F64">
         <v>0.76363636363636356</v>
       </c>
-      <c r="G64">
-        <v>0.23636363636363636</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6">
@@ -1985,11 +5327,8 @@
       <c r="F65">
         <v>0.75454545454545452</v>
       </c>
-      <c r="G65">
-        <v>0.24545454545454543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6">
@@ -2004,11 +5343,8 @@
       <c r="F66">
         <v>0.74545454545454548</v>
       </c>
-      <c r="G66">
-        <v>0.25454545454545452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6">
@@ -2023,11 +5359,8 @@
       <c r="F67">
         <v>0.73636363636363644</v>
       </c>
-      <c r="G67">
-        <v>0.26363636363636361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6">
@@ -2042,11 +5375,8 @@
       <c r="F68">
         <v>0.72727272727272718</v>
       </c>
-      <c r="G68">
-        <v>0.27272727272727271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6">
@@ -2061,11 +5391,8 @@
       <c r="F69">
         <v>0.71818181818181814</v>
       </c>
-      <c r="G69">
-        <v>0.2818181818181818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6">
@@ -2080,11 +5407,8 @@
       <c r="F70">
         <v>0.70909090909090911</v>
       </c>
-      <c r="G70">
-        <v>0.29090909090909089</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6">
@@ -2099,11 +5423,8 @@
       <c r="F71">
         <v>0.7</v>
       </c>
-      <c r="G71">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6">
@@ -2118,11 +5439,8 @@
       <c r="F72">
         <v>0.69090909090909092</v>
       </c>
-      <c r="G72">
-        <v>0.30909090909090908</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6">
@@ -2137,11 +5455,8 @@
       <c r="F73">
         <v>0.68181818181818188</v>
       </c>
-      <c r="G73">
-        <v>0.31818181818181818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6">
@@ -2156,11 +5471,8 @@
       <c r="F74">
         <v>0.67272727272727284</v>
       </c>
-      <c r="G74">
-        <v>0.32727272727272727</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6">
@@ -2175,11 +5487,8 @@
       <c r="F75">
         <v>0.66363636363636369</v>
       </c>
-      <c r="G75">
-        <v>0.33636363636363631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6">
@@ -2194,11 +5503,8 @@
       <c r="F76">
         <v>0.65454545454545454</v>
       </c>
-      <c r="G76">
-        <v>0.34545454545454546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6">
@@ -2213,11 +5519,8 @@
       <c r="F77">
         <v>0.6454545454545455</v>
       </c>
-      <c r="G77">
-        <v>0.35454545454545455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6">
@@ -2232,11 +5535,8 @@
       <c r="F78">
         <v>0.63636363636363635</v>
       </c>
-      <c r="G78">
-        <v>0.36363636363636359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6">
@@ -2251,11 +5551,8 @@
       <c r="F79">
         <v>0.62727272727272732</v>
       </c>
-      <c r="G79">
-        <v>0.37272727272727274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6">
@@ -2270,11 +5567,8 @@
       <c r="F80">
         <v>0.61818181818181817</v>
       </c>
-      <c r="G80">
-        <v>0.38181818181818178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6">
@@ -2289,11 +5583,8 @@
       <c r="F81">
         <v>0.60909090909090913</v>
       </c>
-      <c r="G81">
-        <v>0.39090909090909087</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6">
@@ -2308,11 +5599,8 @@
       <c r="F82">
         <v>0.6</v>
       </c>
-      <c r="G82">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6">
@@ -2327,11 +5615,8 @@
       <c r="F83">
         <v>0.6</v>
       </c>
-      <c r="G83">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6">
@@ -2346,11 +5631,8 @@
       <c r="F84">
         <v>0.6</v>
       </c>
-      <c r="G84">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6">
@@ -2360,7 +5642,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6">
@@ -2370,7 +5652,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6">
@@ -2380,7 +5662,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6">
@@ -2396,11 +5678,2511 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E2B402-CAD4-4A15-BD95-A725E496E878}">
+  <dimension ref="B5:G205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <f>F6*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4.8</v>
+      </c>
+      <c r="F7">
+        <v>151.5151515</v>
+      </c>
+      <c r="G7">
+        <f>F7*60*1000</f>
+        <v>9090909.0900000017</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>11.21212122</v>
+      </c>
+      <c r="C8">
+        <v>1.187384046</v>
+      </c>
+      <c r="E8">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="F8">
+        <v>107.74410770000001</v>
+      </c>
+      <c r="G8">
+        <f>F8*60*1000</f>
+        <v>6464646.4620000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>22.42424244</v>
+      </c>
+      <c r="C9">
+        <v>1.187384046</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>89.225589229999997</v>
+      </c>
+      <c r="G9">
+        <f>F9*60*1000</f>
+        <v>5353535.3537999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>33.636363660000001</v>
+      </c>
+      <c r="C10">
+        <v>1.187384046</v>
+      </c>
+      <c r="E10">
+        <v>19.8</v>
+      </c>
+      <c r="F10">
+        <v>75.757575759999995</v>
+      </c>
+      <c r="G10">
+        <f>F10*60*1000</f>
+        <v>4545454.5455999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>44.848484820000003</v>
+      </c>
+      <c r="C11">
+        <v>1.187384046</v>
+      </c>
+      <c r="E11">
+        <v>25.2</v>
+      </c>
+      <c r="F11">
+        <v>65.656565659999998</v>
+      </c>
+      <c r="G11">
+        <f>F11*60*1000</f>
+        <v>3939393.9396000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>56.060606039999996</v>
+      </c>
+      <c r="C12">
+        <v>1.187384046</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>62.289562289999999</v>
+      </c>
+      <c r="G12">
+        <f>F12*60*1000</f>
+        <v>3737373.7374</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>67.272727259999996</v>
+      </c>
+      <c r="C13">
+        <v>1.187384046</v>
+      </c>
+      <c r="E13">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F13">
+        <v>58.92255892</v>
+      </c>
+      <c r="G13">
+        <f>F13*60*1000</f>
+        <v>3535353.5351999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>78.484848479999997</v>
+      </c>
+      <c r="C14">
+        <v>1.187384046</v>
+      </c>
+      <c r="E14">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F14">
+        <v>58.92255892</v>
+      </c>
+      <c r="G14">
+        <f>F14*60*1000</f>
+        <v>3535353.5351999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>89.696969699999997</v>
+      </c>
+      <c r="C15">
+        <v>1.187384046</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>62.289562289999999</v>
+      </c>
+      <c r="G15">
+        <f>F15*60*1000</f>
+        <v>3737373.7374</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>100.90909092</v>
+      </c>
+      <c r="C16">
+        <v>1.187384046</v>
+      </c>
+      <c r="E16">
+        <v>49.8</v>
+      </c>
+      <c r="F16">
+        <v>62.289562289999999</v>
+      </c>
+      <c r="G16">
+        <f>F16*60*1000</f>
+        <v>3737373.7374</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>107.36047877999999</v>
+      </c>
+      <c r="C17">
+        <v>1.187384046</v>
+      </c>
+      <c r="E17">
+        <v>55.2</v>
+      </c>
+      <c r="F17">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="G17">
+        <f>F17*60*1000</f>
+        <v>3333333.3336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>108.32629698</v>
+      </c>
+      <c r="C18">
+        <v>4.007421151</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="G18">
+        <f>F18*60*1000</f>
+        <v>3333333.3336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>109.97623638</v>
+      </c>
+      <c r="C19">
+        <v>13.13543599</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>52.188552190000003</v>
+      </c>
+      <c r="G19">
+        <f>F19*60*1000</f>
+        <v>3131313.1314000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>111.62617578</v>
+      </c>
+      <c r="C20">
+        <v>28.126159560000001</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>52.188552190000003</v>
+      </c>
+      <c r="G20">
+        <f>F20*60*1000</f>
+        <v>3131313.1314000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>112.12121214</v>
+      </c>
+      <c r="C21">
+        <v>39.50525665</v>
+      </c>
+      <c r="E21">
+        <v>105</v>
+      </c>
+      <c r="F21">
+        <v>52.188552190000003</v>
+      </c>
+      <c r="G21">
+        <f>F21*60*1000</f>
+        <v>3131313.1314000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>112.65235758</v>
+      </c>
+      <c r="C22">
+        <v>39.50525665</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22">
+        <v>52.188552190000003</v>
+      </c>
+      <c r="G22">
+        <f>F22*60*1000</f>
+        <v>3131313.1314000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>113.47732728</v>
+      </c>
+      <c r="C23">
+        <v>51.873840450000003</v>
+      </c>
+      <c r="E23">
+        <v>135</v>
+      </c>
+      <c r="F23">
+        <v>62.289562289999999</v>
+      </c>
+      <c r="G23">
+        <f>F23*60*1000</f>
+        <v>3737373.7374</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>114.30229698000001</v>
+      </c>
+      <c r="C24">
+        <v>66.419295000000005</v>
+      </c>
+      <c r="E24">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="F24">
+        <v>89.225589229999997</v>
+      </c>
+      <c r="G24">
+        <f>F24*60*1000</f>
+        <v>5353535.3537999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>115.12726668000001</v>
+      </c>
+      <c r="C25">
+        <v>81.9727891</v>
+      </c>
+      <c r="E25">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F25">
+        <v>161.6161616</v>
+      </c>
+      <c r="G25">
+        <f>F25*60*1000</f>
+        <v>9696969.6960000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>115.95223638</v>
+      </c>
+      <c r="C26">
+        <v>99.721706870000006</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>217.17171719999999</v>
+      </c>
+      <c r="G26">
+        <f>F26*60*1000</f>
+        <v>13030303.032</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>116.77720608</v>
+      </c>
+      <c r="C27">
+        <v>122.1706865</v>
+      </c>
+      <c r="E27">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="F27">
+        <v>272.72727270000001</v>
+      </c>
+      <c r="G27">
+        <f>F27*60*1000</f>
+        <v>16363636.362000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>117.60217578</v>
+      </c>
+      <c r="C28">
+        <v>143.16635740000001</v>
+      </c>
+      <c r="E28">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="F28">
+        <v>313.13131310000006</v>
+      </c>
+      <c r="G28">
+        <f>F28*60*1000</f>
+        <v>18787878.786000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>118.42714548000001</v>
+      </c>
+      <c r="C29">
+        <v>164.74953619999999</v>
+      </c>
+      <c r="E29">
+        <v>165</v>
+      </c>
+      <c r="F29">
+        <v>279.46127949999999</v>
+      </c>
+      <c r="G29">
+        <f>F29*60*1000</f>
+        <v>16767676.769999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>119.25211517999999</v>
+      </c>
+      <c r="C30">
+        <v>187.5695733</v>
+      </c>
+      <c r="E30">
+        <v>169.8</v>
+      </c>
+      <c r="F30">
+        <v>237.37373740000001</v>
+      </c>
+      <c r="G30">
+        <f>F30*60*1000</f>
+        <v>14242424.243999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>120.07708482000001</v>
+      </c>
+      <c r="C31">
+        <v>209.6474954</v>
+      </c>
+      <c r="E31">
+        <v>180</v>
+      </c>
+      <c r="F31">
+        <v>282.82828280000001</v>
+      </c>
+      <c r="G31">
+        <f>F31*60*1000</f>
+        <v>16969696.967999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>120.90205452000001</v>
+      </c>
+      <c r="C32">
+        <v>224.8608534</v>
+      </c>
+      <c r="E32">
+        <v>195</v>
+      </c>
+      <c r="F32">
+        <v>335.01683500000001</v>
+      </c>
+      <c r="G32">
+        <f>F32*60*1000</f>
+        <v>20101010.099999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>121.72702421999999</v>
+      </c>
+      <c r="C33">
+        <v>244.58874460000001</v>
+      </c>
+      <c r="E33">
+        <v>210</v>
+      </c>
+      <c r="F33">
+        <v>338.38383839999995</v>
+      </c>
+      <c r="G33">
+        <f>F33*60*1000</f>
+        <v>20303030.303999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>122.55199391999999</v>
+      </c>
+      <c r="C34">
+        <v>261.4100186</v>
+      </c>
+      <c r="E34">
+        <v>225</v>
+      </c>
+      <c r="F34">
+        <v>341.75084179999999</v>
+      </c>
+      <c r="G34">
+        <f>F34*60*1000</f>
+        <v>20505050.508000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>123.33333335999998</v>
+      </c>
+      <c r="C35">
+        <v>276.62337659999997</v>
+      </c>
+      <c r="E35">
+        <v>240</v>
+      </c>
+      <c r="F35">
+        <v>345.11784510000001</v>
+      </c>
+      <c r="G35">
+        <f>F35*60*1000</f>
+        <v>20707070.706000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>123.37696362000001</v>
+      </c>
+      <c r="C36">
+        <v>276.62337659999997</v>
+      </c>
+      <c r="E36">
+        <v>255</v>
+      </c>
+      <c r="F36">
+        <v>348.4848485</v>
+      </c>
+      <c r="G36">
+        <f>F36*60*1000</f>
+        <v>20909090.91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>124.42326665999998</v>
+      </c>
+      <c r="C37">
+        <v>290.47619049999997</v>
+      </c>
+      <c r="E37">
+        <v>270</v>
+      </c>
+      <c r="F37">
+        <v>351.85185189999993</v>
+      </c>
+      <c r="G37">
+        <f>F37*60*1000</f>
+        <v>21111111.113999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>127.69502424000001</v>
+      </c>
+      <c r="C38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>285</v>
+      </c>
+      <c r="F38">
+        <v>355.21885520000001</v>
+      </c>
+      <c r="G38">
+        <f>F38*60*1000</f>
+        <v>21313131.312000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>134.54545451999999</v>
+      </c>
+      <c r="C39">
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <v>358.58585859999999</v>
+      </c>
+      <c r="G39">
+        <f>F39*60*1000</f>
+        <v>21515151.515999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>145.75757573999999</v>
+      </c>
+      <c r="C40">
+        <v>300</v>
+      </c>
+      <c r="E40">
+        <v>315</v>
+      </c>
+      <c r="F40">
+        <v>358.58585859999999</v>
+      </c>
+      <c r="G40">
+        <f>F40*60*1000</f>
+        <v>21515151.515999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>146.60780603999999</v>
+      </c>
+      <c r="C41">
+        <v>300</v>
+      </c>
+      <c r="E41">
+        <v>330</v>
+      </c>
+      <c r="F41">
+        <v>361.95286199999998</v>
+      </c>
+      <c r="G41">
+        <f>F41*60*1000</f>
+        <v>21717171.719999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>149.0909091</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="E42">
+        <v>345</v>
+      </c>
+      <c r="F42">
+        <v>361.95286199999998</v>
+      </c>
+      <c r="G42">
+        <f>F42*60*1000</f>
+        <v>21717171.719999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>155.94278183999998</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="E43">
+        <v>360</v>
+      </c>
+      <c r="F43">
+        <v>372.05387209999998</v>
+      </c>
+      <c r="G43">
+        <f>F43*60*1000</f>
+        <v>22323232.325999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>156.96969695999999</v>
+      </c>
+      <c r="C44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <v>375</v>
+      </c>
+      <c r="F44">
+        <v>382.15488219999997</v>
+      </c>
+      <c r="G44">
+        <f>F44*60*1000</f>
+        <v>22929292.931999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>168.18181817999999</v>
+      </c>
+      <c r="C45">
+        <v>300</v>
+      </c>
+      <c r="E45">
+        <v>390</v>
+      </c>
+      <c r="F45">
+        <v>390.57239060000006</v>
+      </c>
+      <c r="G45">
+        <f>F45*60*1000</f>
+        <v>23434343.436000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>179.39393939999999</v>
+      </c>
+      <c r="C46">
+        <v>300</v>
+      </c>
+      <c r="E46">
+        <v>405</v>
+      </c>
+      <c r="F46">
+        <v>404.04040400000002</v>
+      </c>
+      <c r="G46">
+        <f>F46*60*1000</f>
+        <v>24242424.240000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>181.20387270000001</v>
+      </c>
+      <c r="C47">
+        <v>300</v>
+      </c>
+      <c r="E47">
+        <v>420</v>
+      </c>
+      <c r="F47">
+        <v>414.14141410000002</v>
+      </c>
+      <c r="G47">
+        <f>F47*60*1000</f>
+        <v>24848484.846000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>182.52121211999997</v>
+      </c>
+      <c r="C48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>435</v>
+      </c>
+      <c r="F48">
+        <v>427.6094276</v>
+      </c>
+      <c r="G48">
+        <f>F48*60*1000</f>
+        <v>25656565.655999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>190.60606061999999</v>
+      </c>
+      <c r="C49">
+        <v>300</v>
+      </c>
+      <c r="E49">
+        <v>450</v>
+      </c>
+      <c r="F49">
+        <v>437.7104377</v>
+      </c>
+      <c r="G49">
+        <f>F49*60*1000</f>
+        <v>26262626.262000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>201.81818183999999</v>
+      </c>
+      <c r="C50">
+        <v>300</v>
+      </c>
+      <c r="E50">
+        <v>465</v>
+      </c>
+      <c r="F50">
+        <v>444.44444440000001</v>
+      </c>
+      <c r="G50">
+        <f>F50*60*1000</f>
+        <v>26666666.664000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>206.08144848000001</v>
+      </c>
+      <c r="C51">
+        <v>300</v>
+      </c>
+      <c r="E51">
+        <v>480</v>
+      </c>
+      <c r="F51">
+        <v>451.17845119999998</v>
+      </c>
+      <c r="G51">
+        <f>F51*60*1000</f>
+        <v>27070707.071999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>213.03030305999999</v>
+      </c>
+      <c r="C52">
+        <v>300</v>
+      </c>
+      <c r="E52">
+        <v>495</v>
+      </c>
+      <c r="F52">
+        <v>454.54545450000001</v>
+      </c>
+      <c r="G52">
+        <f>F52*60*1000</f>
+        <v>27272727.27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>224.24242422</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>510</v>
+      </c>
+      <c r="F53">
+        <v>456.22895620000003</v>
+      </c>
+      <c r="G53">
+        <f>F53*60*1000</f>
+        <v>27373737.372000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>230.94205452</v>
+      </c>
+      <c r="C54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <v>525</v>
+      </c>
+      <c r="F54">
+        <v>459.59595960000001</v>
+      </c>
+      <c r="G54">
+        <f>F54*60*1000</f>
+        <v>27575757.576000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>235.45454544</v>
+      </c>
+      <c r="C55">
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <v>540</v>
+      </c>
+      <c r="F55">
+        <v>462.96296299999995</v>
+      </c>
+      <c r="G55">
+        <f>F55*60*1000</f>
+        <v>27777777.779999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>246.66666665999998</v>
+      </c>
+      <c r="C56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <v>549</v>
+      </c>
+      <c r="F56">
+        <v>466.32996630000002</v>
+      </c>
+      <c r="G56">
+        <f>F56*60*1000</f>
+        <v>27979797.978000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>255.73720607999999</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>570</v>
+      </c>
+      <c r="F57">
+        <v>469.69696969999995</v>
+      </c>
+      <c r="G57">
+        <f>F57*60*1000</f>
+        <v>28181818.181999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>257.87878788</v>
+      </c>
+      <c r="C58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>585</v>
+      </c>
+      <c r="F58">
+        <v>473.06397310000006</v>
+      </c>
+      <c r="G58">
+        <f>F58*60*1000</f>
+        <v>28383838.386000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>269.09090909999998</v>
+      </c>
+      <c r="C59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>600</v>
+      </c>
+      <c r="F59">
+        <v>473.06397310000006</v>
+      </c>
+      <c r="G59">
+        <f>F59*60*1000</f>
+        <v>28383838.386000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>280.30303032</v>
+      </c>
+      <c r="C60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <v>630</v>
+      </c>
+      <c r="F60">
+        <v>473.06397310000006</v>
+      </c>
+      <c r="G60">
+        <f>F60*60*1000</f>
+        <v>28383838.386000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>280.68023633999996</v>
+      </c>
+      <c r="C61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>660</v>
+      </c>
+      <c r="F61">
+        <v>476.43097639999996</v>
+      </c>
+      <c r="G61">
+        <f>F61*60*1000</f>
+        <v>28585858.583999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>291.51515153999998</v>
+      </c>
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <v>690</v>
+      </c>
+      <c r="F62">
+        <v>479.79797980000006</v>
+      </c>
+      <c r="G62">
+        <f>F62*60*1000</f>
+        <v>28787878.788000006</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>302.72727270000001</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>720</v>
+      </c>
+      <c r="F63">
+        <v>483.16498319999999</v>
+      </c>
+      <c r="G63">
+        <f>F63*60*1000</f>
+        <v>28989898.991999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>305.42932728</v>
+      </c>
+      <c r="C64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <v>750</v>
+      </c>
+      <c r="F64">
+        <v>484.84848479999999</v>
+      </c>
+      <c r="G64">
+        <f>F64*60*1000</f>
+        <v>29090909.088</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>313.93939391999999</v>
+      </c>
+      <c r="C65">
+        <v>298.892562</v>
+      </c>
+      <c r="E65">
+        <v>780</v>
+      </c>
+      <c r="F65">
+        <v>486.53198649999996</v>
+      </c>
+      <c r="G65">
+        <f>F65*60*1000</f>
+        <v>29191919.189999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>324.11187269999999</v>
+      </c>
+      <c r="C66">
+        <v>298.892562</v>
+      </c>
+      <c r="E66">
+        <v>810</v>
+      </c>
+      <c r="F66">
+        <v>489.8989899</v>
+      </c>
+      <c r="G66">
+        <f>F66*60*1000</f>
+        <v>29393939.394000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>325.15151514000001</v>
+      </c>
+      <c r="C67">
+        <v>303.18640950000002</v>
+      </c>
+      <c r="E67">
+        <v>840</v>
+      </c>
+      <c r="F67">
+        <v>489.8989899</v>
+      </c>
+      <c r="G67">
+        <f>F67*60*1000</f>
+        <v>29393939.394000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>331.37563032000003</v>
+      </c>
+      <c r="C68">
+        <v>303.18640950000002</v>
+      </c>
+      <c r="E68">
+        <v>870</v>
+      </c>
+      <c r="F68">
+        <v>489.8989899</v>
+      </c>
+      <c r="G68">
+        <f>F68*60*1000</f>
+        <v>29393939.394000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>332.5326</v>
+      </c>
+      <c r="C69">
+        <v>303.93939390000003</v>
+      </c>
+      <c r="E69">
+        <v>900</v>
+      </c>
+      <c r="F69">
+        <v>489.8989899</v>
+      </c>
+      <c r="G69">
+        <f>F69*60*1000</f>
+        <v>29393939.394000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>334.1825394</v>
+      </c>
+      <c r="C70">
+        <v>304.8393021</v>
+      </c>
+      <c r="E70">
+        <v>930</v>
+      </c>
+      <c r="F70">
+        <v>491.58249160000003</v>
+      </c>
+      <c r="G70">
+        <f>F70*60*1000</f>
+        <v>29494949.495999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>335.83247879999999</v>
+      </c>
+      <c r="C71">
+        <v>306.3452709</v>
+      </c>
+      <c r="E71">
+        <v>960</v>
+      </c>
+      <c r="F71">
+        <v>493.26599329999999</v>
+      </c>
+      <c r="G71">
+        <f>F71*60*1000</f>
+        <v>29595959.598000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>336.36363635999999</v>
+      </c>
+      <c r="C72">
+        <v>307.107438</v>
+      </c>
+      <c r="E72">
+        <v>990</v>
+      </c>
+      <c r="F72">
+        <v>493.26599329999999</v>
+      </c>
+      <c r="G72">
+        <f>F72*60*1000</f>
+        <v>29595959.598000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>336.66750911999998</v>
+      </c>
+      <c r="C73">
+        <v>307.107438</v>
+      </c>
+      <c r="E73">
+        <v>1020</v>
+      </c>
+      <c r="F73">
+        <v>493.26599329999999</v>
+      </c>
+      <c r="G73">
+        <f>F73*60*1000</f>
+        <v>29595959.598000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>338.1363576</v>
+      </c>
+      <c r="C74">
+        <v>308.44811750000002</v>
+      </c>
+      <c r="E74">
+        <v>1050</v>
+      </c>
+      <c r="F74">
+        <v>493.26599329999999</v>
+      </c>
+      <c r="G74">
+        <f>F74*60*1000</f>
+        <v>29595959.598000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>339.90023633999999</v>
+      </c>
+      <c r="C75">
+        <v>310.38567490000003</v>
+      </c>
+      <c r="E75">
+        <v>1080</v>
+      </c>
+      <c r="F75">
+        <v>493.26599329999999</v>
+      </c>
+      <c r="G75">
+        <f>F75*60*1000</f>
+        <v>29595959.598000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>341.67623634</v>
+      </c>
+      <c r="C76">
+        <v>312.64462809999998</v>
+      </c>
+      <c r="E76">
+        <v>1110</v>
+      </c>
+      <c r="F76">
+        <v>494.94949489999993</v>
+      </c>
+      <c r="G76">
+        <f>F76*60*1000</f>
+        <v>29696969.693999995</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>343.19538785999998</v>
+      </c>
+      <c r="C77">
+        <v>314.78420569999997</v>
+      </c>
+      <c r="E77">
+        <v>1140</v>
+      </c>
+      <c r="F77">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G77">
+        <f>F77*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>344.02035755999998</v>
+      </c>
+      <c r="C78">
+        <v>316.29017449999998</v>
+      </c>
+      <c r="E78">
+        <v>1170</v>
+      </c>
+      <c r="F78">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G78">
+        <f>F78*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>344.84532725999998</v>
+      </c>
+      <c r="C79">
+        <v>317.79614320000002</v>
+      </c>
+      <c r="E79">
+        <v>1200</v>
+      </c>
+      <c r="F79">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G79">
+        <f>F79*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>345.67029696000003</v>
+      </c>
+      <c r="C80">
+        <v>319.30211200000002</v>
+      </c>
+      <c r="E80">
+        <v>1230</v>
+      </c>
+      <c r="F80">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G80">
+        <f>F80*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>346.93793333999997</v>
+      </c>
+      <c r="C81">
+        <v>321.6161616</v>
+      </c>
+      <c r="E81">
+        <v>1260</v>
+      </c>
+      <c r="F81">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G81">
+        <f>F81*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>347.57575758000002</v>
+      </c>
+      <c r="C82">
+        <v>324.38016529999999</v>
+      </c>
+      <c r="E82">
+        <v>1290</v>
+      </c>
+      <c r="F82">
+        <v>496.63299660000007</v>
+      </c>
+      <c r="G82">
+        <f>F82*60*1000</f>
+        <v>29797979.796000004</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>348.31623636</v>
+      </c>
+      <c r="C83">
+        <v>324.38016529999999</v>
+      </c>
+      <c r="E83">
+        <v>1320</v>
+      </c>
+      <c r="F83">
+        <v>498.31649830000003</v>
+      </c>
+      <c r="G83">
+        <f>F83*60*1000</f>
+        <v>29898989.898000002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>349.14120605999994</v>
+      </c>
+      <c r="C84">
+        <v>326.5472911</v>
+      </c>
+      <c r="E84">
+        <v>1350</v>
+      </c>
+      <c r="F84">
+        <v>500</v>
+      </c>
+      <c r="G84">
+        <f>F84*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>349.96617576</v>
+      </c>
+      <c r="C85">
+        <v>328.0532599</v>
+      </c>
+      <c r="E85">
+        <v>1380</v>
+      </c>
+      <c r="F85">
+        <v>500</v>
+      </c>
+      <c r="G85">
+        <f>F85*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>350.79114546</v>
+      </c>
+      <c r="C86">
+        <v>330.24793390000002</v>
+      </c>
+      <c r="E86">
+        <v>1410</v>
+      </c>
+      <c r="F86">
+        <v>500</v>
+      </c>
+      <c r="G86">
+        <f>F86*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>351.61611515999999</v>
+      </c>
+      <c r="C87">
+        <v>331.97428830000001</v>
+      </c>
+      <c r="E87">
+        <v>1440</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87">
+        <f>F87*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>352.44108485999999</v>
+      </c>
+      <c r="C88">
+        <v>333.85674929999999</v>
+      </c>
+      <c r="E88">
+        <v>1470</v>
+      </c>
+      <c r="F88">
+        <v>500</v>
+      </c>
+      <c r="G88">
+        <f>F88*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>353.26605455999999</v>
+      </c>
+      <c r="C89">
+        <v>335.89531679999999</v>
+      </c>
+      <c r="E89">
+        <v>1500</v>
+      </c>
+      <c r="F89">
+        <v>500</v>
+      </c>
+      <c r="G89">
+        <f>F89*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>354.09102425999998</v>
+      </c>
+      <c r="C90">
+        <v>337.46556470000002</v>
+      </c>
+      <c r="E90">
+        <v>1530</v>
+      </c>
+      <c r="F90">
+        <v>500</v>
+      </c>
+      <c r="G90">
+        <f>F90*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>354.91599395999998</v>
+      </c>
+      <c r="C91">
+        <v>339.72451790000002</v>
+      </c>
+      <c r="E91">
+        <v>1560</v>
+      </c>
+      <c r="F91">
+        <v>500</v>
+      </c>
+      <c r="G91">
+        <f>F91*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>355.74096365999998</v>
+      </c>
+      <c r="C92">
+        <v>341.32231410000003</v>
+      </c>
+      <c r="E92">
+        <v>1590</v>
+      </c>
+      <c r="F92">
+        <v>500</v>
+      </c>
+      <c r="G92">
+        <f>F92*60*1000</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>356.56593336000003</v>
+      </c>
+      <c r="C93">
+        <v>343.33333329999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>357.77320607999997</v>
+      </c>
+      <c r="C94">
+        <v>346.29017449999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>358.78787879999999</v>
+      </c>
+      <c r="C95">
+        <v>350.24793390000002</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>359.42314548000002</v>
+      </c>
+      <c r="C96">
+        <v>350.24793390000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>361.07308482000002</v>
+      </c>
+      <c r="C97">
+        <v>354.7291093</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>362.72302422000001</v>
+      </c>
+      <c r="C98">
+        <v>358.49403119999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>364.37296361999995</v>
+      </c>
+      <c r="C99">
+        <v>362.25895320000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>366.02290302</v>
+      </c>
+      <c r="C100">
+        <v>366.0238751</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>367.67284241999999</v>
+      </c>
+      <c r="C101">
+        <v>369.78879710000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>369.32278181999999</v>
+      </c>
+      <c r="C102">
+        <v>373.553719</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>370.00000002000002</v>
+      </c>
+      <c r="C103">
+        <v>377.31864089999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>370.97272121999998</v>
+      </c>
+      <c r="C104">
+        <v>377.31864089999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>372.62266062000003</v>
+      </c>
+      <c r="C105">
+        <v>381.0835629</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>374.27260002000003</v>
+      </c>
+      <c r="C106">
+        <v>384.84848479999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>375.92253942000002</v>
+      </c>
+      <c r="C107">
+        <v>388.61340680000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>377.57247875999997</v>
+      </c>
+      <c r="C108">
+        <v>392.3783287</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>379.22241816000002</v>
+      </c>
+      <c r="C109">
+        <v>396.14325070000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>380.87235756000001</v>
+      </c>
+      <c r="C110">
+        <v>399.9081726</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>381.21212123999999</v>
+      </c>
+      <c r="C111">
+        <v>403.67309460000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>383.32714548000001</v>
+      </c>
+      <c r="C112">
+        <v>403.67309460000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>385.16823635999998</v>
+      </c>
+      <c r="C113">
+        <v>407.4380165</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>387.28096361999997</v>
+      </c>
+      <c r="C114">
+        <v>411.20293850000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>389.46411516000001</v>
+      </c>
+      <c r="C115">
+        <v>414.96786040000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>391.35550908000005</v>
+      </c>
+      <c r="C116">
+        <v>418.73278240000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>392.42424240000003</v>
+      </c>
+      <c r="C117">
+        <v>422.49770430000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>394.65538787999998</v>
+      </c>
+      <c r="C118">
+        <v>422.49770430000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>397.18060002000004</v>
+      </c>
+      <c r="C119">
+        <v>426.26262630000002</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>400.40459999999996</v>
+      </c>
+      <c r="C120">
+        <v>430.02754820000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>403.63636362</v>
+      </c>
+      <c r="C121">
+        <v>433.7924701</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>403.79902422000004</v>
+      </c>
+      <c r="C122">
+        <v>433.7924701</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>407.36047878000005</v>
+      </c>
+      <c r="C123">
+        <v>437.55739210000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>411.48532727999998</v>
+      </c>
+      <c r="C124">
+        <v>441.32231400000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>414.84848484000003</v>
+      </c>
+      <c r="C125">
+        <v>445.08723600000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>415.61017578000002</v>
+      </c>
+      <c r="C126">
+        <v>445.08723600000002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>419.73502421999996</v>
+      </c>
+      <c r="C127">
+        <v>448.85215790000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>424.43332727999996</v>
+      </c>
+      <c r="C128">
+        <v>452.61707990000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>426.06060606</v>
+      </c>
+      <c r="C129">
+        <v>456.38200180000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>429.38314548</v>
+      </c>
+      <c r="C130">
+        <v>456.38200180000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>436.41550907999999</v>
+      </c>
+      <c r="C131">
+        <v>460.14692380000002</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>437.27272728000003</v>
+      </c>
+      <c r="C132">
+        <v>463.91184570000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>448.4848485</v>
+      </c>
+      <c r="C133">
+        <v>463.91184570000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>448.86496362000003</v>
+      </c>
+      <c r="C134">
+        <v>463.91184570000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>459.69696971999997</v>
+      </c>
+      <c r="C135">
+        <v>467.67676770000003</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>462.26326668000002</v>
+      </c>
+      <c r="C136">
+        <v>467.67676770000003</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>470.90909088000001</v>
+      </c>
+      <c r="C137">
+        <v>471.44168960000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>482.12121210000004</v>
+      </c>
+      <c r="C138">
+        <v>471.44168960000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>489.77550911999998</v>
+      </c>
+      <c r="C139">
+        <v>471.44168960000002</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>493.33333331999995</v>
+      </c>
+      <c r="C140">
+        <v>475.20661159999997</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>504.54545453999998</v>
+      </c>
+      <c r="C141">
+        <v>475.20661159999997</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>515.75757576000001</v>
+      </c>
+      <c r="C142">
+        <v>475.20661159999997</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>516.34569089999991</v>
+      </c>
+      <c r="C143">
+        <v>475.20661159999997</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>526.96969697999998</v>
+      </c>
+      <c r="C144">
+        <v>478.97153350000002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>538.18181819999995</v>
+      </c>
+      <c r="C145">
+        <v>478.97153350000002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>541.20387270000003</v>
+      </c>
+      <c r="C146">
+        <v>478.97153350000002</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>549.39393942000004</v>
+      </c>
+      <c r="C147">
+        <v>482.73645540000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>560.60606057999996</v>
+      </c>
+      <c r="C148">
+        <v>482.73645540000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>571.81818180000005</v>
+      </c>
+      <c r="C149">
+        <v>482.73645540000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>576.11053937999998</v>
+      </c>
+      <c r="C150">
+        <v>482.73645540000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>583.03030302000002</v>
+      </c>
+      <c r="C151">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>594.24242423999999</v>
+      </c>
+      <c r="C152">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>605.45454540000003</v>
+      </c>
+      <c r="C153">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>616.66666679999992</v>
+      </c>
+      <c r="C154">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>627.87878760000001</v>
+      </c>
+      <c r="C155">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>639.09090900000001</v>
+      </c>
+      <c r="C156">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>642.52859999999998</v>
+      </c>
+      <c r="C157">
+        <v>486.50137740000002</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>650.30303040000001</v>
+      </c>
+      <c r="C158">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>661.51515180000001</v>
+      </c>
+      <c r="C159">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>672.72727259999999</v>
+      </c>
+      <c r="C160">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>683.93939399999999</v>
+      </c>
+      <c r="C161">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>695.15151540000011</v>
+      </c>
+      <c r="C162">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>706.36363620000009</v>
+      </c>
+      <c r="C163">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>709.54993320000005</v>
+      </c>
+      <c r="C164">
+        <v>490.26629930000001</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>717.57575759999997</v>
+      </c>
+      <c r="C165">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>728.78787899999998</v>
+      </c>
+      <c r="C166">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>739.99999980000007</v>
+      </c>
+      <c r="C167">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>751.21212119999996</v>
+      </c>
+      <c r="C168">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>762.42424259999996</v>
+      </c>
+      <c r="C169">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>773.63636339999994</v>
+      </c>
+      <c r="C170">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>784.84848480000005</v>
+      </c>
+      <c r="C171">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>796.06060619999994</v>
+      </c>
+      <c r="C172">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>807.27272699999992</v>
+      </c>
+      <c r="C173">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>818.48484840000003</v>
+      </c>
+      <c r="C174">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>829.69696979999992</v>
+      </c>
+      <c r="C175">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>840.90909120000003</v>
+      </c>
+      <c r="C176">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>852.12121200000001</v>
+      </c>
+      <c r="C177">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>863.33333340000001</v>
+      </c>
+      <c r="C178">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>865.15260000000001</v>
+      </c>
+      <c r="C179">
+        <v>494.03122130000003</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>874.54545480000002</v>
+      </c>
+      <c r="C180">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>885.7575756</v>
+      </c>
+      <c r="C181">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>896.969697</v>
+      </c>
+      <c r="C182">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>908.1818184</v>
+      </c>
+      <c r="C183">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>919.39393920000009</v>
+      </c>
+      <c r="C184">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>930.60606059999998</v>
+      </c>
+      <c r="C185">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>941.81818199999998</v>
+      </c>
+      <c r="C186">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>953.03030280000007</v>
+      </c>
+      <c r="C187">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>964.24242420000007</v>
+      </c>
+      <c r="C188">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>966.52314540000009</v>
+      </c>
+      <c r="C189">
+        <v>497.79614320000002</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>975.45454560000007</v>
+      </c>
+      <c r="C190">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>986.66666640000005</v>
+      </c>
+      <c r="C191">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>997.87878779999994</v>
+      </c>
+      <c r="C192">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1009.0909091999999</v>
+      </c>
+      <c r="C193">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1020.3030306000001</v>
+      </c>
+      <c r="C194">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1020.6826607999999</v>
+      </c>
+      <c r="C195">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>1031.5151513999999</v>
+      </c>
+      <c r="C196">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1042.7272728</v>
+      </c>
+      <c r="C197">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1053.9393942000002</v>
+      </c>
+      <c r="C198">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>1065.151515</v>
+      </c>
+      <c r="C199">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1070.3796306000002</v>
+      </c>
+      <c r="C200">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1076.3636363999999</v>
+      </c>
+      <c r="C201">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1095.151515</v>
+      </c>
+      <c r="C202">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1117.5757578</v>
+      </c>
+      <c r="C203">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>1120.0765997999999</v>
+      </c>
+      <c r="C204">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1140</v>
+      </c>
+      <c r="C205">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2F350-1927-4C2B-8122-AF61D9507803}">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection sqref="A1:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +8357,7 @@
         <v>0.9869</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:I67" si="3">G5*F5</f>
+        <f t="shared" ref="I5:I67" si="3">G5*F5</f>
         <v>3.1702191486594239E-9</v>
       </c>
       <c r="K5">
@@ -9065,7 +14847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458B80CA-F133-426C-99AF-65FEB238A8E1}">
   <dimension ref="A1:J203"/>
   <sheetViews>
